--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -22,11 +22,11 @@
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$287</definedName>
     <definedName name="growthfacility">'cv_sample'!$AQ$1:$AQ$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$BC$1:$BC$4</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="samplecapturestatus">'cv_sample'!$AR$1:$AR$7</definedName>
     <definedName name="samplehealthstate">'cv_sample'!$AJ$1:$AJ$2</definedName>
     <definedName name="soiltype">'cv_sample'!$BK$1:$BK$32</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="807">
   <si>
     <t>alias</t>
   </si>
@@ -456,6 +456,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -555,6 +567,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -672,6 +702,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -679,6 +712,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2967,10 +3003,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3011,10 +3047,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3041,7 +3077,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3061,7 +3097,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3078,7 +3114,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3095,7 +3131,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3112,7 +3148,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3129,7 +3165,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3146,7 +3182,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3163,7 +3199,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3180,7 +3216,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3197,7 +3233,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3211,7 +3247,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3225,7 +3261,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3239,7 +3275,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3253,7 +3289,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3263,8 +3299,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3274,8 +3313,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3285,8 +3327,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3296,8 +3341,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3308,7 +3356,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3319,7 +3367,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3330,7 +3378,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3341,7 +3389,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3352,7 +3400,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3363,7 +3411,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3374,7 +3422,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3385,7 +3433,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3396,7 +3444,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3407,7 +3455,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3418,7 +3466,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3429,7 +3477,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3440,7 +3488,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3451,7 +3499,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3459,7 +3507,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3467,7 +3515,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3475,7 +3523,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3483,7 +3531,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3491,7 +3539,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3499,7 +3547,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3507,7 +3555,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3515,7 +3563,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3523,7 +3571,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3531,176 +3579,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3725,27 +3813,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3768,122 +3856,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3910,624 +3998,624 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:104" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -4568,1608 +4656,1608 @@
   <sheetData>
     <row r="1" spans="13:65">
       <c r="M1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AJ1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AQ1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AR1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="BC1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BK1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BM1" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="13:65">
       <c r="M2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AJ2" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AQ2" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AR2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="BC2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BK2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BM2" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="13:65">
       <c r="M3" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AQ3" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AR3" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="BC3" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BK3" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BM3" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="13:65">
       <c r="M4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AQ4" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AR4" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="BC4" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BK4" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BM4" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="13:65">
       <c r="M5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AQ5" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AR5" t="s">
         <v>116</v>
       </c>
       <c r="BK5" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BM5" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="13:65">
       <c r="M6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AQ6" t="s">
         <v>116</v>
       </c>
       <c r="AR6" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="BK6" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BM6" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="13:65">
       <c r="M7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AR7" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="BK7" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="13:65">
       <c r="M8" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="BK8" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="13:65">
       <c r="M9" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="BK9" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="13:65">
       <c r="M10" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="BK10" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="13:65">
       <c r="M11" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="BK11" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="13:65">
       <c r="M12" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="BK12" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="13:65">
       <c r="M13" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="BK13" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="13:65">
       <c r="M14" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="BK14" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="13:65">
       <c r="M15" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="BK15" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="13:65">
       <c r="M16" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="BK16" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="13:63">
       <c r="M17" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="BK17" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="13:63">
       <c r="M18" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="BK18" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="13:63">
       <c r="M19" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="BK19" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="13:63">
       <c r="M20" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="BK20" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="13:63">
       <c r="M21" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="BK21" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="13:63">
       <c r="M22" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="BK22" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="13:63">
       <c r="M23" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="BK23" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="13:63">
       <c r="M24" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="BK24" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="13:63">
       <c r="M25" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="BK25" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="13:63">
       <c r="M26" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="BK26" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="13:63">
       <c r="M27" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="BK27" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
     </row>
     <row r="28" spans="13:63">
       <c r="M28" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="BK28" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" spans="13:63">
       <c r="M29" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="BK29" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
     </row>
     <row r="30" spans="13:63">
       <c r="M30" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="BK30" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
     </row>
     <row r="31" spans="13:63">
       <c r="M31" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="BK31" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="32" spans="13:63">
       <c r="M32" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="BK32" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
     </row>
     <row r="33" spans="13:13">
       <c r="M33" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="13:13">
       <c r="M34" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="13:13">
       <c r="M35" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="13:13">
       <c r="M36" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="13:13">
       <c r="M38" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="13:13">
       <c r="M39" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="13:13">
       <c r="M40" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="13:13">
       <c r="M41" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="13:13">
       <c r="M42" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="13:13">
       <c r="M44" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="13:13">
       <c r="M45" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="13:13">
       <c r="M46" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="13:13">
       <c r="M47" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="13:13">
       <c r="M48" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="13:13">
       <c r="M50" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="13:13">
       <c r="M51" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="13:13">
       <c r="M55" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="13:13">
       <c r="M56" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="13:13">
       <c r="M57" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="13:13">
       <c r="M70" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="13:13">
       <c r="M71" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="13:13">
       <c r="M72" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="13:13">
       <c r="M73" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="13:13">
       <c r="M74" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="13:13">
       <c r="M75" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="13:13">
       <c r="M76" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="13:13">
       <c r="M77" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="13:13">
       <c r="M78" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="13:13">
       <c r="M79" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="13:13">
       <c r="M80" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="13:13">
       <c r="M81" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="13:13">
       <c r="M82" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="13:13">
       <c r="M83" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="13:13">
       <c r="M84" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="13:13">
       <c r="M85" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="13:13">
       <c r="M86" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="13:13">
       <c r="M88" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="13:13">
       <c r="M89" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="13:13">
       <c r="M90" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="13:13">
       <c r="M91" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="13:13">
       <c r="M92" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="13:13">
       <c r="M93" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="13:13">
       <c r="M94" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="13:13">
       <c r="M95" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="13:13">
       <c r="M96" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="13:13">
       <c r="M97" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="13:13">
       <c r="M98" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="13:13">
       <c r="M99" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="13:13">
       <c r="M101" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="13:13">
       <c r="M102" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="13:13">
       <c r="M103" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="13:13">
       <c r="M104" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="13:13">
       <c r="M105" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="13:13">
       <c r="M106" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="13:13">
       <c r="M107" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="13:13">
       <c r="M108" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="13:13">
       <c r="M109" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="13:13">
       <c r="M110" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="13:13">
       <c r="M111" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="13:13">
       <c r="M112" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="13:13">
       <c r="M117" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="13:13">
       <c r="M121" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="13:13">
       <c r="M122" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="13:13">
       <c r="M124" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="13:13">
       <c r="M125" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="13:13">
       <c r="M126" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="13:13">
       <c r="M127" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="13:13">
       <c r="M128" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="13:13">
       <c r="M132" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="13:13">
       <c r="M133" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" spans="13:13">
       <c r="M134" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="13:13">
       <c r="M135" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="13:13">
       <c r="M136" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="13:13">
       <c r="M137" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="13:13">
       <c r="M138" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="13:13">
       <c r="M139" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="13:13">
       <c r="M140" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="13:13">
       <c r="M141" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="13:13">
       <c r="M142" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="13:13">
       <c r="M143" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="13:13">
       <c r="M144" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="13:13">
       <c r="M145" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146" spans="13:13">
       <c r="M146" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="13:13">
       <c r="M147" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="13:13">
       <c r="M148" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="13:13">
       <c r="M149" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="13:13">
       <c r="M150" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="151" spans="13:13">
       <c r="M151" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152" spans="13:13">
       <c r="M152" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="13:13">
       <c r="M153" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="13:13">
       <c r="M155" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="13:13">
       <c r="M156" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="13:13">
       <c r="M157" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="13:13">
       <c r="M158" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="13:13">
       <c r="M160" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="13:13">
       <c r="M161" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="13:13">
       <c r="M163" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="13:13">
       <c r="M164" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="13:13">
       <c r="M165" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="13:13">
       <c r="M166" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="13:13">
       <c r="M167" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="13:13">
       <c r="M170" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="13:13">
       <c r="M172" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="13:13">
       <c r="M173" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="13:13">
       <c r="M176" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="13:13">
       <c r="M178" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" spans="13:13">
       <c r="M179" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="13:13">
       <c r="M181" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="13:13">
       <c r="M182" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="13:13">
       <c r="M183" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="13:13">
       <c r="M184" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="13:13">
       <c r="M185" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="13:13">
       <c r="M186" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="13:13">
       <c r="M187" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="13:13">
       <c r="M188" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="13:13">
       <c r="M189" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="13:13">
       <c r="M190" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="13:13">
       <c r="M191" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="13:13">
       <c r="M192" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="13:13">
       <c r="M193" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="194" spans="13:13">
       <c r="M194" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="13:13">
       <c r="M195" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="13:13">
       <c r="M196" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="13:13">
       <c r="M198" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="13:13">
       <c r="M199" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="13:13">
       <c r="M200" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="13:13">
       <c r="M201" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="13:13">
       <c r="M202" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="203" spans="13:13">
       <c r="M203" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="204" spans="13:13">
       <c r="M204" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="13:13">
       <c r="M205" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="13:13">
       <c r="M206" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="13:13">
       <c r="M207" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="208" spans="13:13">
       <c r="M208" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="209" spans="13:13">
       <c r="M209" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="210" spans="13:13">
       <c r="M210" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="13:13">
       <c r="M211" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="13:13">
       <c r="M212" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="13:13">
       <c r="M213" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="13:13">
       <c r="M214" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215" spans="13:13">
       <c r="M215" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="13:13">
       <c r="M216" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="13:13">
       <c r="M217" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="13:13">
       <c r="M218" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="219" spans="13:13">
       <c r="M219" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" spans="13:13">
       <c r="M220" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="13:13">
       <c r="M221" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="222" spans="13:13">
       <c r="M222" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="13:13">
       <c r="M223" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="224" spans="13:13">
       <c r="M224" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="13:13">
       <c r="M225" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="226" spans="13:13">
       <c r="M226" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="227" spans="13:13">
       <c r="M227" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="228" spans="13:13">
       <c r="M228" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="13:13">
       <c r="M229" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="230" spans="13:13">
       <c r="M230" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="231" spans="13:13">
       <c r="M231" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="232" spans="13:13">
       <c r="M232" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="233" spans="13:13">
       <c r="M233" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="234" spans="13:13">
       <c r="M234" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="235" spans="13:13">
       <c r="M235" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="236" spans="13:13">
       <c r="M236" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="13:13">
       <c r="M237" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="238" spans="13:13">
       <c r="M238" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="239" spans="13:13">
       <c r="M239" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="240" spans="13:13">
       <c r="M240" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="241" spans="13:13">
       <c r="M241" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="242" spans="13:13">
       <c r="M242" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="243" spans="13:13">
       <c r="M243" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="244" spans="13:13">
       <c r="M244" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="245" spans="13:13">
       <c r="M245" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="13:13">
       <c r="M246" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="247" spans="13:13">
       <c r="M247" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="248" spans="13:13">
       <c r="M248" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="249" spans="13:13">
       <c r="M249" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="250" spans="13:13">
       <c r="M250" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="251" spans="13:13">
       <c r="M251" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="252" spans="13:13">
       <c r="M252" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="253" spans="13:13">
       <c r="M253" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="254" spans="13:13">
       <c r="M254" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="255" spans="13:13">
       <c r="M255" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="256" spans="13:13">
       <c r="M256" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257" spans="13:13">
       <c r="M257" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="258" spans="13:13">
       <c r="M258" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="259" spans="13:13">
       <c r="M259" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="260" spans="13:13">
       <c r="M260" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="13:13">
       <c r="M261" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="262" spans="13:13">
       <c r="M262" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="13:13">
       <c r="M263" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="13:13">
       <c r="M264" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="13:13">
       <c r="M265" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="13:13">
       <c r="M266" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="13:13">
       <c r="M267" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="13:13">
       <c r="M268" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="13:13">
       <c r="M269" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="13:13">
       <c r="M270" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="13:13">
       <c r="M271" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="13:13">
       <c r="M272" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273" spans="13:13">
       <c r="M273" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="13:13">
       <c r="M274" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="275" spans="13:13">
       <c r="M275" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="276" spans="13:13">
       <c r="M276" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="277" spans="13:13">
       <c r="M277" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="278" spans="13:13">
       <c r="M278" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="279" spans="13:13">
       <c r="M279" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="280" spans="13:13">
       <c r="M280" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="13:13">
       <c r="M281" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="13:13">
       <c r="M282" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="13:13">
       <c r="M283" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="284" spans="13:13">
       <c r="M284" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="285" spans="13:13">
       <c r="M285" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="286" spans="13:13">
       <c r="M286" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="287" spans="13:13">
       <c r="M287" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -861,8 +861,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>collected_by</t>
@@ -880,8 +879,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1754,15 +1752,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1780,8 +1776,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1799,8 +1794,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -1836,22 +1830,19 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -2238,8 +2229,7 @@
     <t>soil texture measurement</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. Units: 
-                    </t>
+    <t>(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. (Units: % sand/silt/clay)</t>
   </si>
   <si>
     <t>soil texture method</t>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -105,7 +105,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -1345,10 +1345,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="812">
   <si>
     <t>alias</t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -4001,618 +4004,618 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -4656,1628 +4659,1628 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AJ1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AT1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AW1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BD1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="U2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AJ2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AT2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AW2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BD2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AT3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AW3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BD3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AT4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AW4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BD4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AT5" t="s">
         <v>116</v>
       </c>
       <c r="BD5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="M6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R6" t="s">
         <v>116</v>
       </c>
       <c r="AJ6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AT6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BD6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="M7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AJ7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AT7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="M8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="M9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="M10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="M11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="M12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="M13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="M14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AJ14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="M15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="M16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="13:36">
       <c r="M17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="13:36">
       <c r="M18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AJ18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="13:36">
       <c r="M19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="13:36">
       <c r="M20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="13:36">
       <c r="M21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="13:36">
       <c r="M22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AJ22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="13:36">
       <c r="M23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ23" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="13:36">
       <c r="M24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="13:36">
       <c r="M25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="13:36">
       <c r="M26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AJ26" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="13:36">
       <c r="M27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AJ27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="13:36">
       <c r="M28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AJ28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="13:36">
       <c r="M29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AJ29" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="13:36">
       <c r="M30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AJ30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="13:36">
       <c r="M31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AJ31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="13:36">
       <c r="M32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ32" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="36:36">
       <c r="AJ33" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="36:36">
       <c r="AJ34" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="36:36">
       <c r="AJ35" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="36:36">
       <c r="AJ36" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="36:36">
       <c r="AJ37" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="36:36">
       <c r="AJ38" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="36:36">
       <c r="AJ39" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="36:36">
       <c r="AJ41" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="36:36">
       <c r="AJ42" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="36:36">
       <c r="AJ43" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="36:36">
       <c r="AJ44" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="36:36">
       <c r="AJ45" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="36:36">
       <c r="AJ46" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="36:36">
       <c r="AJ47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="36:36">
       <c r="AJ49" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="36:36">
       <c r="AJ51" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="36:36">
       <c r="AJ52" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="36:36">
       <c r="AJ53" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="36:36">
       <c r="AJ54" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="36:36">
       <c r="AJ55" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="36:36">
       <c r="AJ56" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="36:36">
       <c r="AJ57" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="36:36">
       <c r="AJ58" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="36:36">
       <c r="AJ59" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="36:36">
       <c r="AJ60" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="36:36">
       <c r="AJ61" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="36:36">
       <c r="AJ62" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="36:36">
       <c r="AJ63" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="36:36">
       <c r="AJ64" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="288" spans="36:36">
       <c r="AJ288" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -118,7 +118,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -136,7 +136,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BD$1:$BD$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$R$1:$R$6</definedName>
-    <definedName name="growthhabit">'cv_sample'!$AW$1:$AW$4</definedName>
+    <definedName name="growthhabit">'cv_sample'!$AV$1:$AV$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$E$1:$E$5</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$AT$1:$AT$7</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$AS$1:$AS$7</definedName>
     <definedName name="samplehealthstate">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="soiltype">'cv_sample'!$M$1:$M$32</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="813">
   <si>
     <t>alias</t>
   </si>
@@ -1156,6 +1156,132 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>identified_by</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Optional) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Optional) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>sampling time point</t>
+  </si>
+  <si>
+    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
+  </si>
+  <si>
+    <t>active surveillance in response to outbreak</t>
+  </si>
+  <si>
+    <t>active surveillance not initiated by an outbreak</t>
+  </si>
+  <si>
+    <t>farm sample</t>
+  </si>
+  <si>
+    <t>market sample</t>
+  </si>
+  <si>
+    <t>pet sample</t>
+  </si>
+  <si>
+    <t>zoo sample</t>
+  </si>
+  <si>
+    <t>sample capture status</t>
+  </si>
+  <si>
+    <t>(Optional) Reason for the sample collection.</t>
+  </si>
+  <si>
+    <t>organism common name</t>
+  </si>
+  <si>
+    <t>(Recommended) Common name of the subject organism, e.g. maize</t>
+  </si>
+  <si>
+    <t>biological status</t>
+  </si>
+  <si>
+    <t>(Optional) The level of genome modification; controlled vocabulary: wild, natural, semi-natural, inbred line, breeder's line, hybrid, clonal selection, mutant</t>
+  </si>
+  <si>
+    <t>erect</t>
+  </si>
+  <si>
+    <t>prostrate</t>
+  </si>
+  <si>
+    <t>semi-erect</t>
+  </si>
+  <si>
+    <t>spreading</t>
+  </si>
+  <si>
+    <t>growth habit</t>
+  </si>
+  <si>
+    <t>(Optional) Characteristic shape, appearance or growth form of a plant species</t>
+  </si>
+  <si>
+    <t>plant sex</t>
+  </si>
+  <si>
+    <t>(Optional) Sex of the reproductive parts on the whole plant, e.g. pistilate, staminate, monoecieous, hermaphrodite</t>
+  </si>
+  <si>
+    <t>plant structure</t>
+  </si>
+  <si>
+    <t>(Mandatory) Name of plant structure that the sample was obtained from; for plant ontology (po) terms see http://purl.bioontology.org/ontology/po, e.g. petiole epidermis (po_0000051); if an individual flower is sampled the sex of it can be recorded here</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1984,6 +2110,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -2024,132 +2153,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>identified_by</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Optional) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Optional) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>sampling time point</t>
-  </si>
-  <si>
-    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
-  </si>
-  <si>
-    <t>active surveillance in response to outbreak</t>
-  </si>
-  <si>
-    <t>active surveillance not initiated by an outbreak</t>
-  </si>
-  <si>
-    <t>farm sample</t>
-  </si>
-  <si>
-    <t>market sample</t>
-  </si>
-  <si>
-    <t>pet sample</t>
-  </si>
-  <si>
-    <t>zoo sample</t>
-  </si>
-  <si>
-    <t>sample capture status</t>
-  </si>
-  <si>
-    <t>(Optional) Reason for the sample collection.</t>
-  </si>
-  <si>
-    <t>organism common name</t>
-  </si>
-  <si>
-    <t>(Recommended) Common name of the subject organism, e.g. maize</t>
-  </si>
-  <si>
-    <t>biological status</t>
-  </si>
-  <si>
-    <t>(Optional) The level of genome modification; controlled vocabulary: wild, natural, semi-natural, inbred line, breeder's line, hybrid, clonal selection, mutant</t>
-  </si>
-  <si>
-    <t>erect</t>
-  </si>
-  <si>
-    <t>prostrate</t>
-  </si>
-  <si>
-    <t>semi-erect</t>
-  </si>
-  <si>
-    <t>spreading</t>
-  </si>
-  <si>
-    <t>growth habit</t>
-  </si>
-  <si>
-    <t>(Optional) Characteristic shape, appearance or growth form of a plant species</t>
-  </si>
-  <si>
-    <t>plant sex</t>
-  </si>
-  <si>
-    <t>(Optional) Sex of the reproductive parts on the whole plant, e.g. pistilate, staminate, monoecieous, hermaphrodite</t>
-  </si>
-  <si>
-    <t>plant structure</t>
-  </si>
-  <si>
-    <t>(Mandatory) Name of plant structure that the sample was obtained from; for plant ontology (po) terms see http://purl.bioontology.org/ontology/po, e.g. petiole epidermis (po_0000051); if an individual flower is sampled the sex of it can be recorded here</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>climate environment</t>
@@ -4103,208 +4106,208 @@
         <v>370</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>660</v>
+        <v>372</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>662</v>
+        <v>374</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>664</v>
+        <v>376</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>672</v>
+        <v>384</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>674</v>
+        <v>386</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>676</v>
+        <v>388</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>678</v>
+        <v>396</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>686</v>
+        <v>398</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>688</v>
+        <v>400</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>690</v>
+        <v>406</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>696</v>
+        <v>408</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>698</v>
+        <v>410</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>700</v>
+        <v>412</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="150" customHeight="1">
@@ -4414,208 +4417,208 @@
         <v>371</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>661</v>
+        <v>373</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>663</v>
+        <v>375</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>671</v>
+        <v>383</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>673</v>
+        <v>385</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>675</v>
+        <v>387</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>677</v>
+        <v>389</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>679</v>
+        <v>397</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>687</v>
+        <v>399</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>689</v>
+        <v>401</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>691</v>
+        <v>407</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>697</v>
+        <v>409</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>699</v>
+        <v>411</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>701</v>
+        <v>413</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -4632,14 +4635,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
       <formula1>samplehealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
-      <formula1>geographiclocationcountryandorsea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
       <formula1>samplecapturestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
       <formula1>growthhabit</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
+      <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD3:BD101">
       <formula1>drainageclassification</formula1>
@@ -4651,7 +4654,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BD288"/>
+  <dimension ref="E1:BD289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4670,17 +4673,17 @@
       <c r="U1" t="s">
         <v>340</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>680</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>692</v>
+      <c r="AS1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>414</v>
       </c>
       <c r="BD1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="5:56">
@@ -4696,17 +4699,17 @@
       <c r="U2" t="s">
         <v>341</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>681</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>693</v>
+      <c r="AS2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>415</v>
       </c>
       <c r="BD2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="5:56">
@@ -4719,17 +4722,17 @@
       <c r="R3" t="s">
         <v>331</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>682</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>694</v>
+      <c r="AS3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>416</v>
       </c>
       <c r="BD3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="5:56">
@@ -4742,17 +4745,17 @@
       <c r="R4" t="s">
         <v>332</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>683</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>695</v>
+      <c r="AS4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>417</v>
       </c>
       <c r="BD4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" spans="5:56">
@@ -4765,14 +4768,14 @@
       <c r="R5" t="s">
         <v>333</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AT5" t="s">
+      <c r="AS5" t="s">
         <v>116</v>
       </c>
+      <c r="AZ5" t="s">
+        <v>418</v>
+      </c>
       <c r="BD5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="5:56">
@@ -4782,1505 +4785,1510 @@
       <c r="R6" t="s">
         <v>116</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>684</v>
+      <c r="AS6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>419</v>
       </c>
       <c r="BD6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="M7" t="s">
         <v>293</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>685</v>
+      <c r="AS7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="M8" t="s">
         <v>294</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>379</v>
+      <c r="AZ8" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="M9" t="s">
         <v>295</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>380</v>
+      <c r="AZ9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="M10" t="s">
         <v>296</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>381</v>
+      <c r="AZ10" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="M11" t="s">
         <v>297</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>382</v>
+      <c r="AZ11" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="M12" t="s">
         <v>298</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>383</v>
+      <c r="AZ12" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="M13" t="s">
         <v>299</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>384</v>
+      <c r="AZ13" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="M14" t="s">
         <v>300</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>385</v>
+      <c r="AZ14" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="M15" t="s">
         <v>301</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>386</v>
+      <c r="AZ15" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="M16" t="s">
         <v>302</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="13:36">
+      <c r="AZ16" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="13:52">
       <c r="M17" t="s">
         <v>303</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="13:36">
+      <c r="AZ17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="13:52">
       <c r="M18" t="s">
         <v>304</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="19" spans="13:36">
+      <c r="AZ18" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="13:52">
       <c r="M19" t="s">
         <v>305</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="13:36">
+      <c r="AZ19" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="13:52">
       <c r="M20" t="s">
         <v>306</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="21" spans="13:36">
+      <c r="AZ20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="13:52">
       <c r="M21" t="s">
         <v>307</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="22" spans="13:36">
+      <c r="AZ21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="22" spans="13:52">
       <c r="M22" t="s">
         <v>308</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="13:36">
+      <c r="AZ22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="13:52">
       <c r="M23" t="s">
         <v>309</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="13:36">
+      <c r="AZ23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="13:52">
       <c r="M24" t="s">
         <v>310</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="13:36">
+      <c r="AZ24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="13:52">
       <c r="M25" t="s">
         <v>311</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="13:36">
+      <c r="AZ25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="13:52">
       <c r="M26" t="s">
         <v>312</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="13:36">
+      <c r="AZ26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="13:52">
       <c r="M27" t="s">
         <v>313</v>
       </c>
-      <c r="AJ27" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="28" spans="13:36">
+      <c r="AZ27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="13:52">
       <c r="M28" t="s">
         <v>314</v>
       </c>
-      <c r="AJ28" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="13:36">
+      <c r="AZ28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="13:52">
       <c r="M29" t="s">
         <v>315</v>
       </c>
-      <c r="AJ29" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="13:36">
+      <c r="AZ29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="13:52">
       <c r="M30" t="s">
         <v>316</v>
       </c>
-      <c r="AJ30" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="31" spans="13:36">
+      <c r="AZ30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="13:52">
       <c r="M31" t="s">
         <v>317</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="32" spans="13:36">
+      <c r="AZ31" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="13:52">
       <c r="M32" t="s">
         <v>318</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="36:36">
-      <c r="AJ33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="34" spans="36:36">
-      <c r="AJ34" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="35" spans="36:36">
-      <c r="AJ35" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="36" spans="36:36">
-      <c r="AJ36" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="37" spans="36:36">
-      <c r="AJ37" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="38" spans="36:36">
-      <c r="AJ38" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="39" spans="36:36">
-      <c r="AJ39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="36:36">
-      <c r="AJ40" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="41" spans="36:36">
-      <c r="AJ41" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" spans="36:36">
-      <c r="AJ42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="43" spans="36:36">
-      <c r="AJ43" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="36:36">
-      <c r="AJ44" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="45" spans="36:36">
-      <c r="AJ45" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="46" spans="36:36">
-      <c r="AJ46" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="47" spans="36:36">
-      <c r="AJ47" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="48" spans="36:36">
-      <c r="AJ48" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="49" spans="36:36">
-      <c r="AJ49" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50" spans="36:36">
-      <c r="AJ50" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="51" spans="36:36">
-      <c r="AJ51" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="52" spans="36:36">
-      <c r="AJ52" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="53" spans="36:36">
-      <c r="AJ53" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="54" spans="36:36">
-      <c r="AJ54" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="55" spans="36:36">
-      <c r="AJ55" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="36:36">
-      <c r="AJ56" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="57" spans="36:36">
-      <c r="AJ57" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="58" spans="36:36">
-      <c r="AJ58" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="59" spans="36:36">
-      <c r="AJ59" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="60" spans="36:36">
-      <c r="AJ60" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="61" spans="36:36">
-      <c r="AJ61" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="62" spans="36:36">
-      <c r="AJ62" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="63" spans="36:36">
-      <c r="AJ63" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="64" spans="36:36">
-      <c r="AJ64" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="65" spans="36:36">
-      <c r="AJ65" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="66" spans="36:36">
-      <c r="AJ66" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="67" spans="36:36">
-      <c r="AJ67" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="68" spans="36:36">
-      <c r="AJ68" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="69" spans="36:36">
-      <c r="AJ69" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="70" spans="36:36">
-      <c r="AJ70" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="71" spans="36:36">
-      <c r="AJ71" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="72" spans="36:36">
-      <c r="AJ72" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="73" spans="36:36">
-      <c r="AJ73" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="74" spans="36:36">
-      <c r="AJ74" t="s">
+      <c r="AZ32" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="36:36">
-      <c r="AJ75" t="s">
+    <row r="33" spans="52:52">
+      <c r="AZ33" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="76" spans="36:36">
-      <c r="AJ76" t="s">
+    <row r="34" spans="52:52">
+      <c r="AZ34" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="77" spans="36:36">
-      <c r="AJ77" t="s">
+    <row r="35" spans="52:52">
+      <c r="AZ35" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="78" spans="36:36">
-      <c r="AJ78" t="s">
+    <row r="36" spans="52:52">
+      <c r="AZ36" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="36:36">
-      <c r="AJ79" t="s">
+    <row r="37" spans="52:52">
+      <c r="AZ37" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="80" spans="36:36">
-      <c r="AJ80" t="s">
+    <row r="38" spans="52:52">
+      <c r="AZ38" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="81" spans="36:36">
-      <c r="AJ81" t="s">
+    <row r="39" spans="52:52">
+      <c r="AZ39" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="36:36">
-      <c r="AJ82" t="s">
+    <row r="40" spans="52:52">
+      <c r="AZ40" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="83" spans="36:36">
-      <c r="AJ83" t="s">
+    <row r="41" spans="52:52">
+      <c r="AZ41" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="36:36">
-      <c r="AJ84" t="s">
+    <row r="42" spans="52:52">
+      <c r="AZ42" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="36:36">
-      <c r="AJ85" t="s">
+    <row r="43" spans="52:52">
+      <c r="AZ43" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="86" spans="36:36">
-      <c r="AJ86" t="s">
+    <row r="44" spans="52:52">
+      <c r="AZ44" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="87" spans="36:36">
-      <c r="AJ87" t="s">
+    <row r="45" spans="52:52">
+      <c r="AZ45" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="88" spans="36:36">
-      <c r="AJ88" t="s">
+    <row r="46" spans="52:52">
+      <c r="AZ46" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="89" spans="36:36">
-      <c r="AJ89" t="s">
+    <row r="47" spans="52:52">
+      <c r="AZ47" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="36:36">
-      <c r="AJ90" t="s">
+    <row r="48" spans="52:52">
+      <c r="AZ48" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="91" spans="36:36">
-      <c r="AJ91" t="s">
+    <row r="49" spans="52:52">
+      <c r="AZ49" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="92" spans="36:36">
-      <c r="AJ92" t="s">
+    <row r="50" spans="52:52">
+      <c r="AZ50" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="93" spans="36:36">
-      <c r="AJ93" t="s">
+    <row r="51" spans="52:52">
+      <c r="AZ51" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="94" spans="36:36">
-      <c r="AJ94" t="s">
+    <row r="52" spans="52:52">
+      <c r="AZ52" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="95" spans="36:36">
-      <c r="AJ95" t="s">
+    <row r="53" spans="52:52">
+      <c r="AZ53" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="96" spans="36:36">
-      <c r="AJ96" t="s">
+    <row r="54" spans="52:52">
+      <c r="AZ54" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="97" spans="36:36">
-      <c r="AJ97" t="s">
+    <row r="55" spans="52:52">
+      <c r="AZ55" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="98" spans="36:36">
-      <c r="AJ98" t="s">
+    <row r="56" spans="52:52">
+      <c r="AZ56" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="99" spans="36:36">
-      <c r="AJ99" t="s">
+    <row r="57" spans="52:52">
+      <c r="AZ57" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="36:36">
-      <c r="AJ100" t="s">
+    <row r="58" spans="52:52">
+      <c r="AZ58" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="101" spans="36:36">
-      <c r="AJ101" t="s">
+    <row r="59" spans="52:52">
+      <c r="AZ59" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="102" spans="36:36">
-      <c r="AJ102" t="s">
+    <row r="60" spans="52:52">
+      <c r="AZ60" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="103" spans="36:36">
-      <c r="AJ103" t="s">
+    <row r="61" spans="52:52">
+      <c r="AZ61" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="104" spans="36:36">
-      <c r="AJ104" t="s">
+    <row r="62" spans="52:52">
+      <c r="AZ62" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="36:36">
-      <c r="AJ105" t="s">
+    <row r="63" spans="52:52">
+      <c r="AZ63" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="106" spans="36:36">
-      <c r="AJ106" t="s">
+    <row r="64" spans="52:52">
+      <c r="AZ64" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="107" spans="36:36">
-      <c r="AJ107" t="s">
+    <row r="65" spans="52:52">
+      <c r="AZ65" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="108" spans="36:36">
-      <c r="AJ108" t="s">
+    <row r="66" spans="52:52">
+      <c r="AZ66" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="109" spans="36:36">
-      <c r="AJ109" t="s">
+    <row r="67" spans="52:52">
+      <c r="AZ67" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="110" spans="36:36">
-      <c r="AJ110" t="s">
+    <row r="68" spans="52:52">
+      <c r="AZ68" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="111" spans="36:36">
-      <c r="AJ111" t="s">
+    <row r="69" spans="52:52">
+      <c r="AZ69" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="112" spans="36:36">
-      <c r="AJ112" t="s">
+    <row r="70" spans="52:52">
+      <c r="AZ70" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="113" spans="36:36">
-      <c r="AJ113" t="s">
+    <row r="71" spans="52:52">
+      <c r="AZ71" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="114" spans="36:36">
-      <c r="AJ114" t="s">
+    <row r="72" spans="52:52">
+      <c r="AZ72" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="115" spans="36:36">
-      <c r="AJ115" t="s">
+    <row r="73" spans="52:52">
+      <c r="AZ73" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="116" spans="36:36">
-      <c r="AJ116" t="s">
+    <row r="74" spans="52:52">
+      <c r="AZ74" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="117" spans="36:36">
-      <c r="AJ117" t="s">
+    <row r="75" spans="52:52">
+      <c r="AZ75" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="118" spans="36:36">
-      <c r="AJ118" t="s">
+    <row r="76" spans="52:52">
+      <c r="AZ76" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="119" spans="36:36">
-      <c r="AJ119" t="s">
+    <row r="77" spans="52:52">
+      <c r="AZ77" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="120" spans="36:36">
-      <c r="AJ120" t="s">
+    <row r="78" spans="52:52">
+      <c r="AZ78" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="36:36">
-      <c r="AJ121" t="s">
+    <row r="79" spans="52:52">
+      <c r="AZ79" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="122" spans="36:36">
-      <c r="AJ122" t="s">
+    <row r="80" spans="52:52">
+      <c r="AZ80" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="123" spans="36:36">
-      <c r="AJ123" t="s">
+    <row r="81" spans="52:52">
+      <c r="AZ81" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="124" spans="36:36">
-      <c r="AJ124" t="s">
+    <row r="82" spans="52:52">
+      <c r="AZ82" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="125" spans="36:36">
-      <c r="AJ125" t="s">
+    <row r="83" spans="52:52">
+      <c r="AZ83" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="126" spans="36:36">
-      <c r="AJ126" t="s">
+    <row r="84" spans="52:52">
+      <c r="AZ84" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="127" spans="36:36">
-      <c r="AJ127" t="s">
+    <row r="85" spans="52:52">
+      <c r="AZ85" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="128" spans="36:36">
-      <c r="AJ128" t="s">
+    <row r="86" spans="52:52">
+      <c r="AZ86" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="36:36">
-      <c r="AJ129" t="s">
+    <row r="87" spans="52:52">
+      <c r="AZ87" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="130" spans="36:36">
-      <c r="AJ130" t="s">
+    <row r="88" spans="52:52">
+      <c r="AZ88" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="131" spans="36:36">
-      <c r="AJ131" t="s">
+    <row r="89" spans="52:52">
+      <c r="AZ89" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="132" spans="36:36">
-      <c r="AJ132" t="s">
+    <row r="90" spans="52:52">
+      <c r="AZ90" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="133" spans="36:36">
-      <c r="AJ133" t="s">
+    <row r="91" spans="52:52">
+      <c r="AZ91" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="134" spans="36:36">
-      <c r="AJ134" t="s">
+    <row r="92" spans="52:52">
+      <c r="AZ92" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="135" spans="36:36">
-      <c r="AJ135" t="s">
+    <row r="93" spans="52:52">
+      <c r="AZ93" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="136" spans="36:36">
-      <c r="AJ136" t="s">
+    <row r="94" spans="52:52">
+      <c r="AZ94" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="137" spans="36:36">
-      <c r="AJ137" t="s">
+    <row r="95" spans="52:52">
+      <c r="AZ95" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="36:36">
-      <c r="AJ138" t="s">
+    <row r="96" spans="52:52">
+      <c r="AZ96" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="139" spans="36:36">
-      <c r="AJ139" t="s">
+    <row r="97" spans="52:52">
+      <c r="AZ97" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="140" spans="36:36">
-      <c r="AJ140" t="s">
+    <row r="98" spans="52:52">
+      <c r="AZ98" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="141" spans="36:36">
-      <c r="AJ141" t="s">
+    <row r="99" spans="52:52">
+      <c r="AZ99" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="142" spans="36:36">
-      <c r="AJ142" t="s">
+    <row r="100" spans="52:52">
+      <c r="AZ100" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="143" spans="36:36">
-      <c r="AJ143" t="s">
+    <row r="101" spans="52:52">
+      <c r="AZ101" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="144" spans="36:36">
-      <c r="AJ144" t="s">
+    <row r="102" spans="52:52">
+      <c r="AZ102" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="145" spans="36:36">
-      <c r="AJ145" t="s">
+    <row r="103" spans="52:52">
+      <c r="AZ103" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="146" spans="36:36">
-      <c r="AJ146" t="s">
+    <row r="104" spans="52:52">
+      <c r="AZ104" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="147" spans="36:36">
-      <c r="AJ147" t="s">
+    <row r="105" spans="52:52">
+      <c r="AZ105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="148" spans="36:36">
-      <c r="AJ148" t="s">
+    <row r="106" spans="52:52">
+      <c r="AZ106" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="149" spans="36:36">
-      <c r="AJ149" t="s">
+    <row r="107" spans="52:52">
+      <c r="AZ107" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="150" spans="36:36">
-      <c r="AJ150" t="s">
+    <row r="108" spans="52:52">
+      <c r="AZ108" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="36:36">
-      <c r="AJ151" t="s">
+    <row r="109" spans="52:52">
+      <c r="AZ109" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="152" spans="36:36">
-      <c r="AJ152" t="s">
+    <row r="110" spans="52:52">
+      <c r="AZ110" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="153" spans="36:36">
-      <c r="AJ153" t="s">
+    <row r="111" spans="52:52">
+      <c r="AZ111" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="154" spans="36:36">
-      <c r="AJ154" t="s">
+    <row r="112" spans="52:52">
+      <c r="AZ112" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="155" spans="36:36">
-      <c r="AJ155" t="s">
+    <row r="113" spans="52:52">
+      <c r="AZ113" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="36:36">
-      <c r="AJ156" t="s">
+    <row r="114" spans="52:52">
+      <c r="AZ114" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="157" spans="36:36">
-      <c r="AJ157" t="s">
+    <row r="115" spans="52:52">
+      <c r="AZ115" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="158" spans="36:36">
-      <c r="AJ158" t="s">
+    <row r="116" spans="52:52">
+      <c r="AZ116" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="159" spans="36:36">
-      <c r="AJ159" t="s">
+    <row r="117" spans="52:52">
+      <c r="AZ117" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="160" spans="36:36">
-      <c r="AJ160" t="s">
+    <row r="118" spans="52:52">
+      <c r="AZ118" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="161" spans="36:36">
-      <c r="AJ161" t="s">
+    <row r="119" spans="52:52">
+      <c r="AZ119" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="162" spans="36:36">
-      <c r="AJ162" t="s">
+    <row r="120" spans="52:52">
+      <c r="AZ120" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="163" spans="36:36">
-      <c r="AJ163" t="s">
+    <row r="121" spans="52:52">
+      <c r="AZ121" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="164" spans="36:36">
-      <c r="AJ164" t="s">
+    <row r="122" spans="52:52">
+      <c r="AZ122" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="165" spans="36:36">
-      <c r="AJ165" t="s">
+    <row r="123" spans="52:52">
+      <c r="AZ123" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="166" spans="36:36">
-      <c r="AJ166" t="s">
+    <row r="124" spans="52:52">
+      <c r="AZ124" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="167" spans="36:36">
-      <c r="AJ167" t="s">
+    <row r="125" spans="52:52">
+      <c r="AZ125" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="168" spans="36:36">
-      <c r="AJ168" t="s">
+    <row r="126" spans="52:52">
+      <c r="AZ126" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="169" spans="36:36">
-      <c r="AJ169" t="s">
+    <row r="127" spans="52:52">
+      <c r="AZ127" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="170" spans="36:36">
-      <c r="AJ170" t="s">
+    <row r="128" spans="52:52">
+      <c r="AZ128" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="171" spans="36:36">
-      <c r="AJ171" t="s">
+    <row r="129" spans="52:52">
+      <c r="AZ129" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="172" spans="36:36">
-      <c r="AJ172" t="s">
+    <row r="130" spans="52:52">
+      <c r="AZ130" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="173" spans="36:36">
-      <c r="AJ173" t="s">
+    <row r="131" spans="52:52">
+      <c r="AZ131" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="174" spans="36:36">
-      <c r="AJ174" t="s">
+    <row r="132" spans="52:52">
+      <c r="AZ132" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="175" spans="36:36">
-      <c r="AJ175" t="s">
+    <row r="133" spans="52:52">
+      <c r="AZ133" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="176" spans="36:36">
-      <c r="AJ176" t="s">
+    <row r="134" spans="52:52">
+      <c r="AZ134" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="177" spans="36:36">
-      <c r="AJ177" t="s">
+    <row r="135" spans="52:52">
+      <c r="AZ135" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="36:36">
-      <c r="AJ178" t="s">
+    <row r="136" spans="52:52">
+      <c r="AZ136" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="179" spans="36:36">
-      <c r="AJ179" t="s">
+    <row r="137" spans="52:52">
+      <c r="AZ137" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="180" spans="36:36">
-      <c r="AJ180" t="s">
+    <row r="138" spans="52:52">
+      <c r="AZ138" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="181" spans="36:36">
-      <c r="AJ181" t="s">
+    <row r="139" spans="52:52">
+      <c r="AZ139" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="182" spans="36:36">
-      <c r="AJ182" t="s">
+    <row r="140" spans="52:52">
+      <c r="AZ140" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="183" spans="36:36">
-      <c r="AJ183" t="s">
+    <row r="141" spans="52:52">
+      <c r="AZ141" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="184" spans="36:36">
-      <c r="AJ184" t="s">
+    <row r="142" spans="52:52">
+      <c r="AZ142" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="185" spans="36:36">
-      <c r="AJ185" t="s">
+    <row r="143" spans="52:52">
+      <c r="AZ143" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="186" spans="36:36">
-      <c r="AJ186" t="s">
+    <row r="144" spans="52:52">
+      <c r="AZ144" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="187" spans="36:36">
-      <c r="AJ187" t="s">
+    <row r="145" spans="52:52">
+      <c r="AZ145" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="188" spans="36:36">
-      <c r="AJ188" t="s">
+    <row r="146" spans="52:52">
+      <c r="AZ146" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="189" spans="36:36">
-      <c r="AJ189" t="s">
+    <row r="147" spans="52:52">
+      <c r="AZ147" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="190" spans="36:36">
-      <c r="AJ190" t="s">
+    <row r="148" spans="52:52">
+      <c r="AZ148" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="191" spans="36:36">
-      <c r="AJ191" t="s">
+    <row r="149" spans="52:52">
+      <c r="AZ149" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="192" spans="36:36">
-      <c r="AJ192" t="s">
+    <row r="150" spans="52:52">
+      <c r="AZ150" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="193" spans="36:36">
-      <c r="AJ193" t="s">
+    <row r="151" spans="52:52">
+      <c r="AZ151" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="194" spans="36:36">
-      <c r="AJ194" t="s">
+    <row r="152" spans="52:52">
+      <c r="AZ152" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="195" spans="36:36">
-      <c r="AJ195" t="s">
+    <row r="153" spans="52:52">
+      <c r="AZ153" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="196" spans="36:36">
-      <c r="AJ196" t="s">
+    <row r="154" spans="52:52">
+      <c r="AZ154" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="197" spans="36:36">
-      <c r="AJ197" t="s">
+    <row r="155" spans="52:52">
+      <c r="AZ155" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="198" spans="36:36">
-      <c r="AJ198" t="s">
+    <row r="156" spans="52:52">
+      <c r="AZ156" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="199" spans="36:36">
-      <c r="AJ199" t="s">
+    <row r="157" spans="52:52">
+      <c r="AZ157" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="200" spans="36:36">
-      <c r="AJ200" t="s">
+    <row r="158" spans="52:52">
+      <c r="AZ158" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="201" spans="36:36">
-      <c r="AJ201" t="s">
+    <row r="159" spans="52:52">
+      <c r="AZ159" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="202" spans="36:36">
-      <c r="AJ202" t="s">
+    <row r="160" spans="52:52">
+      <c r="AZ160" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="203" spans="36:36">
-      <c r="AJ203" t="s">
+    <row r="161" spans="52:52">
+      <c r="AZ161" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="204" spans="36:36">
-      <c r="AJ204" t="s">
+    <row r="162" spans="52:52">
+      <c r="AZ162" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="205" spans="36:36">
-      <c r="AJ205" t="s">
+    <row r="163" spans="52:52">
+      <c r="AZ163" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="206" spans="36:36">
-      <c r="AJ206" t="s">
+    <row r="164" spans="52:52">
+      <c r="AZ164" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="207" spans="36:36">
-      <c r="AJ207" t="s">
+    <row r="165" spans="52:52">
+      <c r="AZ165" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="208" spans="36:36">
-      <c r="AJ208" t="s">
+    <row r="166" spans="52:52">
+      <c r="AZ166" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="209" spans="36:36">
-      <c r="AJ209" t="s">
+    <row r="167" spans="52:52">
+      <c r="AZ167" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="210" spans="36:36">
-      <c r="AJ210" t="s">
+    <row r="168" spans="52:52">
+      <c r="AZ168" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="211" spans="36:36">
-      <c r="AJ211" t="s">
+    <row r="169" spans="52:52">
+      <c r="AZ169" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="212" spans="36:36">
-      <c r="AJ212" t="s">
+    <row r="170" spans="52:52">
+      <c r="AZ170" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="213" spans="36:36">
-      <c r="AJ213" t="s">
+    <row r="171" spans="52:52">
+      <c r="AZ171" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="214" spans="36:36">
-      <c r="AJ214" t="s">
+    <row r="172" spans="52:52">
+      <c r="AZ172" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="215" spans="36:36">
-      <c r="AJ215" t="s">
+    <row r="173" spans="52:52">
+      <c r="AZ173" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="216" spans="36:36">
-      <c r="AJ216" t="s">
+    <row r="174" spans="52:52">
+      <c r="AZ174" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="217" spans="36:36">
-      <c r="AJ217" t="s">
+    <row r="175" spans="52:52">
+      <c r="AZ175" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="218" spans="36:36">
-      <c r="AJ218" t="s">
+    <row r="176" spans="52:52">
+      <c r="AZ176" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="219" spans="36:36">
-      <c r="AJ219" t="s">
+    <row r="177" spans="52:52">
+      <c r="AZ177" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="220" spans="36:36">
-      <c r="AJ220" t="s">
+    <row r="178" spans="52:52">
+      <c r="AZ178" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="221" spans="36:36">
-      <c r="AJ221" t="s">
+    <row r="179" spans="52:52">
+      <c r="AZ179" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="222" spans="36:36">
-      <c r="AJ222" t="s">
+    <row r="180" spans="52:52">
+      <c r="AZ180" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="223" spans="36:36">
-      <c r="AJ223" t="s">
+    <row r="181" spans="52:52">
+      <c r="AZ181" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="224" spans="36:36">
-      <c r="AJ224" t="s">
+    <row r="182" spans="52:52">
+      <c r="AZ182" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="225" spans="36:36">
-      <c r="AJ225" t="s">
+    <row r="183" spans="52:52">
+      <c r="AZ183" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="226" spans="36:36">
-      <c r="AJ226" t="s">
+    <row r="184" spans="52:52">
+      <c r="AZ184" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="227" spans="36:36">
-      <c r="AJ227" t="s">
+    <row r="185" spans="52:52">
+      <c r="AZ185" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="228" spans="36:36">
-      <c r="AJ228" t="s">
+    <row r="186" spans="52:52">
+      <c r="AZ186" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="229" spans="36:36">
-      <c r="AJ229" t="s">
+    <row r="187" spans="52:52">
+      <c r="AZ187" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="230" spans="36:36">
-      <c r="AJ230" t="s">
+    <row r="188" spans="52:52">
+      <c r="AZ188" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="231" spans="36:36">
-      <c r="AJ231" t="s">
+    <row r="189" spans="52:52">
+      <c r="AZ189" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="232" spans="36:36">
-      <c r="AJ232" t="s">
+    <row r="190" spans="52:52">
+      <c r="AZ190" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="233" spans="36:36">
-      <c r="AJ233" t="s">
+    <row r="191" spans="52:52">
+      <c r="AZ191" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="234" spans="36:36">
-      <c r="AJ234" t="s">
+    <row r="192" spans="52:52">
+      <c r="AZ192" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="235" spans="36:36">
-      <c r="AJ235" t="s">
+    <row r="193" spans="52:52">
+      <c r="AZ193" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="236" spans="36:36">
-      <c r="AJ236" t="s">
+    <row r="194" spans="52:52">
+      <c r="AZ194" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="237" spans="36:36">
-      <c r="AJ237" t="s">
+    <row r="195" spans="52:52">
+      <c r="AZ195" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="238" spans="36:36">
-      <c r="AJ238" t="s">
+    <row r="196" spans="52:52">
+      <c r="AZ196" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="239" spans="36:36">
-      <c r="AJ239" t="s">
+    <row r="197" spans="52:52">
+      <c r="AZ197" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="240" spans="36:36">
-      <c r="AJ240" t="s">
+    <row r="198" spans="52:52">
+      <c r="AZ198" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="241" spans="36:36">
-      <c r="AJ241" t="s">
+    <row r="199" spans="52:52">
+      <c r="AZ199" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="242" spans="36:36">
-      <c r="AJ242" t="s">
+    <row r="200" spans="52:52">
+      <c r="AZ200" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="243" spans="36:36">
-      <c r="AJ243" t="s">
+    <row r="201" spans="52:52">
+      <c r="AZ201" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="244" spans="36:36">
-      <c r="AJ244" t="s">
+    <row r="202" spans="52:52">
+      <c r="AZ202" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="245" spans="36:36">
-      <c r="AJ245" t="s">
+    <row r="203" spans="52:52">
+      <c r="AZ203" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="246" spans="36:36">
-      <c r="AJ246" t="s">
+    <row r="204" spans="52:52">
+      <c r="AZ204" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="247" spans="36:36">
-      <c r="AJ247" t="s">
+    <row r="205" spans="52:52">
+      <c r="AZ205" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="248" spans="36:36">
-      <c r="AJ248" t="s">
+    <row r="206" spans="52:52">
+      <c r="AZ206" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="249" spans="36:36">
-      <c r="AJ249" t="s">
+    <row r="207" spans="52:52">
+      <c r="AZ207" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="250" spans="36:36">
-      <c r="AJ250" t="s">
+    <row r="208" spans="52:52">
+      <c r="AZ208" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="251" spans="36:36">
-      <c r="AJ251" t="s">
+    <row r="209" spans="52:52">
+      <c r="AZ209" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="252" spans="36:36">
-      <c r="AJ252" t="s">
+    <row r="210" spans="52:52">
+      <c r="AZ210" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="253" spans="36:36">
-      <c r="AJ253" t="s">
+    <row r="211" spans="52:52">
+      <c r="AZ211" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="254" spans="36:36">
-      <c r="AJ254" t="s">
+    <row r="212" spans="52:52">
+      <c r="AZ212" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="255" spans="36:36">
-      <c r="AJ255" t="s">
+    <row r="213" spans="52:52">
+      <c r="AZ213" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="256" spans="36:36">
-      <c r="AJ256" t="s">
+    <row r="214" spans="52:52">
+      <c r="AZ214" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="257" spans="36:36">
-      <c r="AJ257" t="s">
+    <row r="215" spans="52:52">
+      <c r="AZ215" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="258" spans="36:36">
-      <c r="AJ258" t="s">
+    <row r="216" spans="52:52">
+      <c r="AZ216" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="259" spans="36:36">
-      <c r="AJ259" t="s">
+    <row r="217" spans="52:52">
+      <c r="AZ217" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="260" spans="36:36">
-      <c r="AJ260" t="s">
+    <row r="218" spans="52:52">
+      <c r="AZ218" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="261" spans="36:36">
-      <c r="AJ261" t="s">
+    <row r="219" spans="52:52">
+      <c r="AZ219" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="262" spans="36:36">
-      <c r="AJ262" t="s">
+    <row r="220" spans="52:52">
+      <c r="AZ220" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="263" spans="36:36">
-      <c r="AJ263" t="s">
+    <row r="221" spans="52:52">
+      <c r="AZ221" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="264" spans="36:36">
-      <c r="AJ264" t="s">
+    <row r="222" spans="52:52">
+      <c r="AZ222" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="265" spans="36:36">
-      <c r="AJ265" t="s">
+    <row r="223" spans="52:52">
+      <c r="AZ223" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="266" spans="36:36">
-      <c r="AJ266" t="s">
+    <row r="224" spans="52:52">
+      <c r="AZ224" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="267" spans="36:36">
-      <c r="AJ267" t="s">
+    <row r="225" spans="52:52">
+      <c r="AZ225" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="268" spans="36:36">
-      <c r="AJ268" t="s">
+    <row r="226" spans="52:52">
+      <c r="AZ226" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="269" spans="36:36">
-      <c r="AJ269" t="s">
+    <row r="227" spans="52:52">
+      <c r="AZ227" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="270" spans="36:36">
-      <c r="AJ270" t="s">
+    <row r="228" spans="52:52">
+      <c r="AZ228" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="271" spans="36:36">
-      <c r="AJ271" t="s">
+    <row r="229" spans="52:52">
+      <c r="AZ229" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="272" spans="36:36">
-      <c r="AJ272" t="s">
+    <row r="230" spans="52:52">
+      <c r="AZ230" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="273" spans="36:36">
-      <c r="AJ273" t="s">
+    <row r="231" spans="52:52">
+      <c r="AZ231" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="274" spans="36:36">
-      <c r="AJ274" t="s">
+    <row r="232" spans="52:52">
+      <c r="AZ232" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="275" spans="36:36">
-      <c r="AJ275" t="s">
+    <row r="233" spans="52:52">
+      <c r="AZ233" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="276" spans="36:36">
-      <c r="AJ276" t="s">
+    <row r="234" spans="52:52">
+      <c r="AZ234" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="277" spans="36:36">
-      <c r="AJ277" t="s">
+    <row r="235" spans="52:52">
+      <c r="AZ235" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="278" spans="36:36">
-      <c r="AJ278" t="s">
+    <row r="236" spans="52:52">
+      <c r="AZ236" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="279" spans="36:36">
-      <c r="AJ279" t="s">
+    <row r="237" spans="52:52">
+      <c r="AZ237" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="280" spans="36:36">
-      <c r="AJ280" t="s">
+    <row r="238" spans="52:52">
+      <c r="AZ238" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="281" spans="36:36">
-      <c r="AJ281" t="s">
+    <row r="239" spans="52:52">
+      <c r="AZ239" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="282" spans="36:36">
-      <c r="AJ282" t="s">
+    <row r="240" spans="52:52">
+      <c r="AZ240" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="283" spans="36:36">
-      <c r="AJ283" t="s">
+    <row r="241" spans="52:52">
+      <c r="AZ241" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="284" spans="36:36">
-      <c r="AJ284" t="s">
+    <row r="242" spans="52:52">
+      <c r="AZ242" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="285" spans="36:36">
-      <c r="AJ285" t="s">
+    <row r="243" spans="52:52">
+      <c r="AZ243" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="286" spans="36:36">
-      <c r="AJ286" t="s">
+    <row r="244" spans="52:52">
+      <c r="AZ244" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="287" spans="36:36">
-      <c r="AJ287" t="s">
+    <row r="245" spans="52:52">
+      <c r="AZ245" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="288" spans="36:36">
-      <c r="AJ288" t="s">
+    <row r="246" spans="52:52">
+      <c r="AZ246" t="s">
         <v>659</v>
+      </c>
+    </row>
+    <row r="247" spans="52:52">
+      <c r="AZ247" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="248" spans="52:52">
+      <c r="AZ248" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="249" spans="52:52">
+      <c r="AZ249" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="250" spans="52:52">
+      <c r="AZ250" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="251" spans="52:52">
+      <c r="AZ251" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="252" spans="52:52">
+      <c r="AZ252" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="253" spans="52:52">
+      <c r="AZ253" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="254" spans="52:52">
+      <c r="AZ254" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="255" spans="52:52">
+      <c r="AZ255" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="256" spans="52:52">
+      <c r="AZ256" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="257" spans="52:52">
+      <c r="AZ257" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="258" spans="52:52">
+      <c r="AZ258" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="259" spans="52:52">
+      <c r="AZ259" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="260" spans="52:52">
+      <c r="AZ260" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="261" spans="52:52">
+      <c r="AZ261" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="262" spans="52:52">
+      <c r="AZ262" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="263" spans="52:52">
+      <c r="AZ263" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="52:52">
+      <c r="AZ264" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="265" spans="52:52">
+      <c r="AZ265" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="266" spans="52:52">
+      <c r="AZ266" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="267" spans="52:52">
+      <c r="AZ267" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="268" spans="52:52">
+      <c r="AZ268" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="269" spans="52:52">
+      <c r="AZ269" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="270" spans="52:52">
+      <c r="AZ270" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="271" spans="52:52">
+      <c r="AZ271" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="272" spans="52:52">
+      <c r="AZ272" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="273" spans="52:52">
+      <c r="AZ273" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="274" spans="52:52">
+      <c r="AZ274" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="275" spans="52:52">
+      <c r="AZ275" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="276" spans="52:52">
+      <c r="AZ276" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="277" spans="52:52">
+      <c r="AZ277" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="278" spans="52:52">
+      <c r="AZ278" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="279" spans="52:52">
+      <c r="AZ279" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="280" spans="52:52">
+      <c r="AZ280" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="281" spans="52:52">
+      <c r="AZ281" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="282" spans="52:52">
+      <c r="AZ282" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="283" spans="52:52">
+      <c r="AZ283" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="284" spans="52:52">
+      <c r="AZ284" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="285" spans="52:52">
+      <c r="AZ285" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="286" spans="52:52">
+      <c r="AZ286" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="287" spans="52:52">
+      <c r="AZ287" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="288" spans="52:52">
+      <c r="AZ288" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="289" spans="52:52">
+      <c r="AZ289" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -22,7 +22,7 @@
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$R$1:$R$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AV$1:$AV$4</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="814">
   <si>
     <t>alias</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3015,7 +3018,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3059,7 +3062,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3086,7 +3089,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3798,6 +3801,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3822,27 +3830,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3865,122 +3873,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4007,618 +4015,618 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -4662,1633 +4670,1633 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="U1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AS1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AV1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AZ1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BD1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AS2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AV2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AZ2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BD2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AS3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AV3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AZ3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BD3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AS4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AV4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AZ4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BD4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AS5" t="s">
         <v>116</v>
       </c>
       <c r="AZ5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BD5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="M6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R6" t="s">
         <v>116</v>
       </c>
       <c r="AS6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AZ6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BD6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="M7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AS7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AZ7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="M8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AZ8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="M9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AZ9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="M10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AZ10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="M11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AZ11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="M12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AZ12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="M13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AZ13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="M14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AZ14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="M15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AZ15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="M16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AZ16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="13:52">
       <c r="M17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AZ17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="13:52">
       <c r="M18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AZ18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="13:52">
       <c r="M19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AZ19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="13:52">
       <c r="M20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AZ20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="13:52">
       <c r="M21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AZ21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="13:52">
       <c r="M22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AZ22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="13:52">
       <c r="M23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AZ23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="13:52">
       <c r="M24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AZ24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="13:52">
       <c r="M25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AZ25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="13:52">
       <c r="M26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AZ26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="13:52">
       <c r="M27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AZ27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="13:52">
       <c r="M28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AZ28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="13:52">
       <c r="M29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AZ29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="13:52">
       <c r="M30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AZ30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="13:52">
       <c r="M31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AZ31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="13:52">
       <c r="M32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AZ32" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="52:52">
       <c r="AZ33" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="52:52">
       <c r="AZ34" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="52:52">
       <c r="AZ35" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="52:52">
       <c r="AZ36" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="52:52">
       <c r="AZ37" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="52:52">
       <c r="AZ38" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="52:52">
       <c r="AZ39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="52:52">
       <c r="AZ40" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="52:52">
       <c r="AZ41" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="52:52">
       <c r="AZ42" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="52:52">
       <c r="AZ43" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="52:52">
       <c r="AZ44" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="52:52">
       <c r="AZ45" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="52:52">
       <c r="AZ46" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="52:52">
       <c r="AZ47" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="52:52">
       <c r="AZ48" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="52:52">
       <c r="AZ49" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="52:52">
       <c r="AZ50" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="52:52">
       <c r="AZ51" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="52:52">
       <c r="AZ52" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="52:52">
       <c r="AZ53" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="52:52">
       <c r="AZ54" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="52:52">
       <c r="AZ55" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="52:52">
       <c r="AZ56" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="52:52">
       <c r="AZ57" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="52:52">
       <c r="AZ58" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="52:52">
       <c r="AZ59" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="52:52">
       <c r="AZ60" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="52:52">
       <c r="AZ61" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="52:52">
       <c r="AZ62" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="52:52">
       <c r="AZ63" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="52:52">
       <c r="AZ64" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="52:52">
       <c r="AZ65" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="52:52">
       <c r="AZ66" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="52:52">
       <c r="AZ67" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="52:52">
       <c r="AZ68" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="52:52">
       <c r="AZ69" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="52:52">
       <c r="AZ70" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="52:52">
       <c r="AZ71" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="52:52">
       <c r="AZ72" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="52:52">
       <c r="AZ73" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="52:52">
       <c r="AZ74" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="52:52">
       <c r="AZ75" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="52:52">
       <c r="AZ76" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="52:52">
       <c r="AZ77" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="52:52">
       <c r="AZ78" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="52:52">
       <c r="AZ79" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="52:52">
       <c r="AZ80" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="52:52">
       <c r="AZ81" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="52:52">
       <c r="AZ82" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="52:52">
       <c r="AZ83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="52:52">
       <c r="AZ84" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="52:52">
       <c r="AZ85" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="52:52">
       <c r="AZ86" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="52:52">
       <c r="AZ87" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="52:52">
       <c r="AZ88" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="52:52">
       <c r="AZ89" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="90" spans="52:52">
       <c r="AZ90" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="52:52">
       <c r="AZ91" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="52:52">
       <c r="AZ92" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" spans="52:52">
       <c r="AZ93" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="52:52">
       <c r="AZ94" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95" spans="52:52">
       <c r="AZ95" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="52:52">
       <c r="AZ96" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="52:52">
       <c r="AZ97" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="52:52">
       <c r="AZ98" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="52:52">
       <c r="AZ99" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="52:52">
       <c r="AZ100" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101" spans="52:52">
       <c r="AZ101" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="102" spans="52:52">
       <c r="AZ102" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="103" spans="52:52">
       <c r="AZ103" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" spans="52:52">
       <c r="AZ104" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="52:52">
       <c r="AZ105" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="52:52">
       <c r="AZ106" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107" spans="52:52">
       <c r="AZ107" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="108" spans="52:52">
       <c r="AZ108" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="52:52">
       <c r="AZ109" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="52:52">
       <c r="AZ110" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="52:52">
       <c r="AZ111" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="112" spans="52:52">
       <c r="AZ112" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113" spans="52:52">
       <c r="AZ113" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="114" spans="52:52">
       <c r="AZ114" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="115" spans="52:52">
       <c r="AZ115" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="116" spans="52:52">
       <c r="AZ116" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="52:52">
       <c r="AZ117" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="52:52">
       <c r="AZ118" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="119" spans="52:52">
       <c r="AZ119" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="52:52">
       <c r="AZ120" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" spans="52:52">
       <c r="AZ121" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="122" spans="52:52">
       <c r="AZ122" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="123" spans="52:52">
       <c r="AZ123" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="124" spans="52:52">
       <c r="AZ124" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="125" spans="52:52">
       <c r="AZ125" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126" spans="52:52">
       <c r="AZ126" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="127" spans="52:52">
       <c r="AZ127" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="128" spans="52:52">
       <c r="AZ128" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" spans="52:52">
       <c r="AZ129" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="52:52">
       <c r="AZ130" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="52:52">
       <c r="AZ131" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="132" spans="52:52">
       <c r="AZ132" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="133" spans="52:52">
       <c r="AZ133" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="134" spans="52:52">
       <c r="AZ134" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="52:52">
       <c r="AZ135" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="136" spans="52:52">
       <c r="AZ136" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="52:52">
       <c r="AZ137" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="52:52">
       <c r="AZ138" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" spans="52:52">
       <c r="AZ139" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="52:52">
       <c r="AZ140" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" spans="52:52">
       <c r="AZ141" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" spans="52:52">
       <c r="AZ142" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="143" spans="52:52">
       <c r="AZ143" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="144" spans="52:52">
       <c r="AZ144" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="145" spans="52:52">
       <c r="AZ145" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="52:52">
       <c r="AZ146" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="147" spans="52:52">
       <c r="AZ147" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="52:52">
       <c r="AZ148" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="52:52">
       <c r="AZ149" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="150" spans="52:52">
       <c r="AZ150" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" spans="52:52">
       <c r="AZ151" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="52:52">
       <c r="AZ152" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="52:52">
       <c r="AZ153" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="52:52">
       <c r="AZ154" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" spans="52:52">
       <c r="AZ155" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="156" spans="52:52">
       <c r="AZ156" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="157" spans="52:52">
       <c r="AZ157" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="52:52">
       <c r="AZ158" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="159" spans="52:52">
       <c r="AZ159" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="52:52">
       <c r="AZ160" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="161" spans="52:52">
       <c r="AZ161" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="162" spans="52:52">
       <c r="AZ162" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="163" spans="52:52">
       <c r="AZ163" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="164" spans="52:52">
       <c r="AZ164" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="165" spans="52:52">
       <c r="AZ165" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="52:52">
       <c r="AZ166" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="167" spans="52:52">
       <c r="AZ167" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="52:52">
       <c r="AZ168" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="169" spans="52:52">
       <c r="AZ169" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="170" spans="52:52">
       <c r="AZ170" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="52:52">
       <c r="AZ171" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="172" spans="52:52">
       <c r="AZ172" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="173" spans="52:52">
       <c r="AZ173" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="174" spans="52:52">
       <c r="AZ174" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="175" spans="52:52">
       <c r="AZ175" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="176" spans="52:52">
       <c r="AZ176" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="177" spans="52:52">
       <c r="AZ177" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="178" spans="52:52">
       <c r="AZ178" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="179" spans="52:52">
       <c r="AZ179" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="180" spans="52:52">
       <c r="AZ180" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="181" spans="52:52">
       <c r="AZ181" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="182" spans="52:52">
       <c r="AZ182" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="183" spans="52:52">
       <c r="AZ183" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="184" spans="52:52">
       <c r="AZ184" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="185" spans="52:52">
       <c r="AZ185" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="186" spans="52:52">
       <c r="AZ186" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="187" spans="52:52">
       <c r="AZ187" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="188" spans="52:52">
       <c r="AZ188" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="189" spans="52:52">
       <c r="AZ189" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="190" spans="52:52">
       <c r="AZ190" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="191" spans="52:52">
       <c r="AZ191" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="192" spans="52:52">
       <c r="AZ192" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="193" spans="52:52">
       <c r="AZ193" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="194" spans="52:52">
       <c r="AZ194" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="195" spans="52:52">
       <c r="AZ195" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="196" spans="52:52">
       <c r="AZ196" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="197" spans="52:52">
       <c r="AZ197" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="198" spans="52:52">
       <c r="AZ198" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="199" spans="52:52">
       <c r="AZ199" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="200" spans="52:52">
       <c r="AZ200" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="201" spans="52:52">
       <c r="AZ201" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="202" spans="52:52">
       <c r="AZ202" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="203" spans="52:52">
       <c r="AZ203" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="204" spans="52:52">
       <c r="AZ204" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="205" spans="52:52">
       <c r="AZ205" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="206" spans="52:52">
       <c r="AZ206" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="207" spans="52:52">
       <c r="AZ207" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208" spans="52:52">
       <c r="AZ208" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="209" spans="52:52">
       <c r="AZ209" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="210" spans="52:52">
       <c r="AZ210" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="211" spans="52:52">
       <c r="AZ211" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="212" spans="52:52">
       <c r="AZ212" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="213" spans="52:52">
       <c r="AZ213" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="214" spans="52:52">
       <c r="AZ214" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="215" spans="52:52">
       <c r="AZ215" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="52:52">
       <c r="AZ216" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="217" spans="52:52">
       <c r="AZ217" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="218" spans="52:52">
       <c r="AZ218" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="219" spans="52:52">
       <c r="AZ219" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="220" spans="52:52">
       <c r="AZ220" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="221" spans="52:52">
       <c r="AZ221" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="222" spans="52:52">
       <c r="AZ222" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="223" spans="52:52">
       <c r="AZ223" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="224" spans="52:52">
       <c r="AZ224" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="225" spans="52:52">
       <c r="AZ225" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="226" spans="52:52">
       <c r="AZ226" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="227" spans="52:52">
       <c r="AZ227" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="228" spans="52:52">
       <c r="AZ228" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="229" spans="52:52">
       <c r="AZ229" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="230" spans="52:52">
       <c r="AZ230" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="231" spans="52:52">
       <c r="AZ231" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="232" spans="52:52">
       <c r="AZ232" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="233" spans="52:52">
       <c r="AZ233" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="234" spans="52:52">
       <c r="AZ234" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="235" spans="52:52">
       <c r="AZ235" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="236" spans="52:52">
       <c r="AZ236" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="237" spans="52:52">
       <c r="AZ237" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="238" spans="52:52">
       <c r="AZ238" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="239" spans="52:52">
       <c r="AZ239" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="240" spans="52:52">
       <c r="AZ240" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="241" spans="52:52">
       <c r="AZ241" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="242" spans="52:52">
       <c r="AZ242" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="243" spans="52:52">
       <c r="AZ243" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="244" spans="52:52">
       <c r="AZ244" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="245" spans="52:52">
       <c r="AZ245" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="246" spans="52:52">
       <c r="AZ246" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="247" spans="52:52">
       <c r="AZ247" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="248" spans="52:52">
       <c r="AZ248" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="249" spans="52:52">
       <c r="AZ249" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="250" spans="52:52">
       <c r="AZ250" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="251" spans="52:52">
       <c r="AZ251" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="252" spans="52:52">
       <c r="AZ252" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="253" spans="52:52">
       <c r="AZ253" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="254" spans="52:52">
       <c r="AZ254" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="255" spans="52:52">
       <c r="AZ255" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="256" spans="52:52">
       <c r="AZ256" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="257" spans="52:52">
       <c r="AZ257" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="258" spans="52:52">
       <c r="AZ258" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="259" spans="52:52">
       <c r="AZ259" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="260" spans="52:52">
       <c r="AZ260" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="261" spans="52:52">
       <c r="AZ261" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="262" spans="52:52">
       <c r="AZ262" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="263" spans="52:52">
       <c r="AZ263" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="264" spans="52:52">
       <c r="AZ264" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="265" spans="52:52">
       <c r="AZ265" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="266" spans="52:52">
       <c r="AZ266" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="267" spans="52:52">
       <c r="AZ267" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="268" spans="52:52">
       <c r="AZ268" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="269" spans="52:52">
       <c r="AZ269" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="270" spans="52:52">
       <c r="AZ270" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="271" spans="52:52">
       <c r="AZ271" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="272" spans="52:52">
       <c r="AZ272" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="273" spans="52:52">
       <c r="AZ273" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="274" spans="52:52">
       <c r="AZ274" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="275" spans="52:52">
       <c r="AZ275" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="276" spans="52:52">
       <c r="AZ276" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="277" spans="52:52">
       <c r="AZ277" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="278" spans="52:52">
       <c r="AZ278" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="279" spans="52:52">
       <c r="AZ279" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="280" spans="52:52">
       <c r="AZ280" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="281" spans="52:52">
       <c r="AZ281" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="282" spans="52:52">
       <c r="AZ282" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="283" spans="52:52">
       <c r="AZ283" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="284" spans="52:52">
       <c r="AZ284" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="285" spans="52:52">
       <c r="AZ285" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="286" spans="52:52">
       <c r="AZ286" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="287" spans="52:52">
       <c r="AZ287" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="288" spans="52:52">
       <c r="AZ288" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="289" spans="52:52">
       <c r="AZ289" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -22,7 +22,7 @@
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$R$1:$R$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AV$1:$AV$4</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="815">
   <si>
     <t>alias</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3018,7 +3021,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3062,7 +3065,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3092,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3806,6 +3809,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3830,27 +3838,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3873,122 +3881,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4015,618 +4023,618 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -4670,1633 +4678,1633 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AS1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AV1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AZ1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BD1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AS2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AV2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AZ2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BD2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AS3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AV3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AZ3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BD3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AS4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AV4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AZ4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BD4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AS5" t="s">
         <v>116</v>
       </c>
       <c r="AZ5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BD5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="M6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R6" t="s">
         <v>116</v>
       </c>
       <c r="AS6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AZ6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BD6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="M7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AS7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AZ7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="M8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AZ8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="M9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AZ9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="M10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AZ10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="M11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AZ11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="M12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AZ12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="M13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AZ13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="M14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AZ14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="M15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AZ15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="M16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AZ16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="13:52">
       <c r="M17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AZ17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="13:52">
       <c r="M18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AZ18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="13:52">
       <c r="M19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AZ19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="13:52">
       <c r="M20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AZ20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="13:52">
       <c r="M21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AZ21" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="13:52">
       <c r="M22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AZ22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="13:52">
       <c r="M23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AZ23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="13:52">
       <c r="M24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AZ24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="13:52">
       <c r="M25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AZ25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="13:52">
       <c r="M26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AZ26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="13:52">
       <c r="M27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AZ27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="13:52">
       <c r="M28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AZ28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="13:52">
       <c r="M29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AZ29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="13:52">
       <c r="M30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AZ30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="13:52">
       <c r="M31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AZ31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="13:52">
       <c r="M32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AZ32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="52:52">
       <c r="AZ33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="52:52">
       <c r="AZ34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="52:52">
       <c r="AZ35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="52:52">
       <c r="AZ36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="52:52">
       <c r="AZ37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="52:52">
       <c r="AZ38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="52:52">
       <c r="AZ39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="52:52">
       <c r="AZ40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="52:52">
       <c r="AZ41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="52:52">
       <c r="AZ42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="52:52">
       <c r="AZ43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="52:52">
       <c r="AZ44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="52:52">
       <c r="AZ45" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="52:52">
       <c r="AZ46" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="52:52">
       <c r="AZ47" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="52:52">
       <c r="AZ48" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="52:52">
       <c r="AZ49" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="52:52">
       <c r="AZ50" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="52:52">
       <c r="AZ51" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="52:52">
       <c r="AZ52" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="52:52">
       <c r="AZ53" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="52:52">
       <c r="AZ54" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="52:52">
       <c r="AZ55" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="52:52">
       <c r="AZ56" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="52:52">
       <c r="AZ57" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="52:52">
       <c r="AZ58" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="52:52">
       <c r="AZ59" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="52:52">
       <c r="AZ60" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="52:52">
       <c r="AZ61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="52:52">
       <c r="AZ62" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="52:52">
       <c r="AZ63" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="52:52">
       <c r="AZ64" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="52:52">
       <c r="AZ65" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="52:52">
       <c r="AZ66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="52:52">
       <c r="AZ67" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="52:52">
       <c r="AZ68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="52:52">
       <c r="AZ69" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="52:52">
       <c r="AZ70" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="52:52">
       <c r="AZ71" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="52:52">
       <c r="AZ72" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="52:52">
       <c r="AZ73" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74" spans="52:52">
       <c r="AZ74" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="52:52">
       <c r="AZ75" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="52:52">
       <c r="AZ76" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="52:52">
       <c r="AZ77" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="52:52">
       <c r="AZ78" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="52:52">
       <c r="AZ79" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="52:52">
       <c r="AZ80" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81" spans="52:52">
       <c r="AZ81" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="52:52">
       <c r="AZ82" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="52:52">
       <c r="AZ83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="52:52">
       <c r="AZ84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="52:52">
       <c r="AZ85" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="52:52">
       <c r="AZ86" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="52:52">
       <c r="AZ87" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="52:52">
       <c r="AZ88" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="52:52">
       <c r="AZ89" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="52:52">
       <c r="AZ90" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="52:52">
       <c r="AZ91" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="52:52">
       <c r="AZ92" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="52:52">
       <c r="AZ93" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="52:52">
       <c r="AZ94" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95" spans="52:52">
       <c r="AZ95" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="52:52">
       <c r="AZ96" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="52:52">
       <c r="AZ97" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="52:52">
       <c r="AZ98" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="52:52">
       <c r="AZ99" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="52:52">
       <c r="AZ100" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="52:52">
       <c r="AZ101" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="52:52">
       <c r="AZ102" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="52:52">
       <c r="AZ103" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="52:52">
       <c r="AZ104" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="52:52">
       <c r="AZ105" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="52:52">
       <c r="AZ106" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="52:52">
       <c r="AZ107" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="108" spans="52:52">
       <c r="AZ108" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="109" spans="52:52">
       <c r="AZ109" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="52:52">
       <c r="AZ110" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="52:52">
       <c r="AZ111" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="52:52">
       <c r="AZ112" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="52:52">
       <c r="AZ113" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="52:52">
       <c r="AZ114" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" spans="52:52">
       <c r="AZ115" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="52:52">
       <c r="AZ116" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="117" spans="52:52">
       <c r="AZ117" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118" spans="52:52">
       <c r="AZ118" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="119" spans="52:52">
       <c r="AZ119" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="120" spans="52:52">
       <c r="AZ120" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="52:52">
       <c r="AZ121" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="122" spans="52:52">
       <c r="AZ122" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="123" spans="52:52">
       <c r="AZ123" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="124" spans="52:52">
       <c r="AZ124" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="125" spans="52:52">
       <c r="AZ125" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="126" spans="52:52">
       <c r="AZ126" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="127" spans="52:52">
       <c r="AZ127" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128" spans="52:52">
       <c r="AZ128" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="129" spans="52:52">
       <c r="AZ129" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="130" spans="52:52">
       <c r="AZ130" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="131" spans="52:52">
       <c r="AZ131" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="132" spans="52:52">
       <c r="AZ132" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="133" spans="52:52">
       <c r="AZ133" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134" spans="52:52">
       <c r="AZ134" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="135" spans="52:52">
       <c r="AZ135" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="52:52">
       <c r="AZ136" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="52:52">
       <c r="AZ137" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="52:52">
       <c r="AZ138" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="52:52">
       <c r="AZ139" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="52:52">
       <c r="AZ140" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="141" spans="52:52">
       <c r="AZ141" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="142" spans="52:52">
       <c r="AZ142" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="143" spans="52:52">
       <c r="AZ143" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144" spans="52:52">
       <c r="AZ144" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="145" spans="52:52">
       <c r="AZ145" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="146" spans="52:52">
       <c r="AZ146" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="147" spans="52:52">
       <c r="AZ147" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" spans="52:52">
       <c r="AZ148" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="52:52">
       <c r="AZ149" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="52:52">
       <c r="AZ150" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="52:52">
       <c r="AZ151" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="52:52">
       <c r="AZ152" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="52:52">
       <c r="AZ153" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="154" spans="52:52">
       <c r="AZ154" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="52:52">
       <c r="AZ155" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156" spans="52:52">
       <c r="AZ156" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="52:52">
       <c r="AZ157" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="52:52">
       <c r="AZ158" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" spans="52:52">
       <c r="AZ159" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160" spans="52:52">
       <c r="AZ160" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="161" spans="52:52">
       <c r="AZ161" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="162" spans="52:52">
       <c r="AZ162" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="52:52">
       <c r="AZ163" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164" spans="52:52">
       <c r="AZ164" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="52:52">
       <c r="AZ165" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="166" spans="52:52">
       <c r="AZ166" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="52:52">
       <c r="AZ167" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="168" spans="52:52">
       <c r="AZ168" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="169" spans="52:52">
       <c r="AZ169" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="170" spans="52:52">
       <c r="AZ170" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="171" spans="52:52">
       <c r="AZ171" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="172" spans="52:52">
       <c r="AZ172" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="173" spans="52:52">
       <c r="AZ173" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="174" spans="52:52">
       <c r="AZ174" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175" spans="52:52">
       <c r="AZ175" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="176" spans="52:52">
       <c r="AZ176" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="177" spans="52:52">
       <c r="AZ177" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="178" spans="52:52">
       <c r="AZ178" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179" spans="52:52">
       <c r="AZ179" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="180" spans="52:52">
       <c r="AZ180" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="181" spans="52:52">
       <c r="AZ181" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="182" spans="52:52">
       <c r="AZ182" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="183" spans="52:52">
       <c r="AZ183" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="184" spans="52:52">
       <c r="AZ184" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="185" spans="52:52">
       <c r="AZ185" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="52:52">
       <c r="AZ186" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="187" spans="52:52">
       <c r="AZ187" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="188" spans="52:52">
       <c r="AZ188" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="189" spans="52:52">
       <c r="AZ189" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="190" spans="52:52">
       <c r="AZ190" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="191" spans="52:52">
       <c r="AZ191" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192" spans="52:52">
       <c r="AZ192" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="52:52">
       <c r="AZ193" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194" spans="52:52">
       <c r="AZ194" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195" spans="52:52">
       <c r="AZ195" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="196" spans="52:52">
       <c r="AZ196" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="197" spans="52:52">
       <c r="AZ197" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="198" spans="52:52">
       <c r="AZ198" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199" spans="52:52">
       <c r="AZ199" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="52:52">
       <c r="AZ200" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="52:52">
       <c r="AZ201" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="52:52">
       <c r="AZ202" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="52:52">
       <c r="AZ203" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="204" spans="52:52">
       <c r="AZ204" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205" spans="52:52">
       <c r="AZ205" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="206" spans="52:52">
       <c r="AZ206" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="52:52">
       <c r="AZ207" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="208" spans="52:52">
       <c r="AZ208" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="209" spans="52:52">
       <c r="AZ209" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="210" spans="52:52">
       <c r="AZ210" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211" spans="52:52">
       <c r="AZ211" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="212" spans="52:52">
       <c r="AZ212" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="213" spans="52:52">
       <c r="AZ213" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="214" spans="52:52">
       <c r="AZ214" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="215" spans="52:52">
       <c r="AZ215" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="216" spans="52:52">
       <c r="AZ216" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="217" spans="52:52">
       <c r="AZ217" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="218" spans="52:52">
       <c r="AZ218" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="219" spans="52:52">
       <c r="AZ219" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="220" spans="52:52">
       <c r="AZ220" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="221" spans="52:52">
       <c r="AZ221" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="222" spans="52:52">
       <c r="AZ222" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="223" spans="52:52">
       <c r="AZ223" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="224" spans="52:52">
       <c r="AZ224" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="225" spans="52:52">
       <c r="AZ225" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="226" spans="52:52">
       <c r="AZ226" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="227" spans="52:52">
       <c r="AZ227" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="228" spans="52:52">
       <c r="AZ228" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="229" spans="52:52">
       <c r="AZ229" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="230" spans="52:52">
       <c r="AZ230" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="231" spans="52:52">
       <c r="AZ231" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="232" spans="52:52">
       <c r="AZ232" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="233" spans="52:52">
       <c r="AZ233" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="234" spans="52:52">
       <c r="AZ234" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="235" spans="52:52">
       <c r="AZ235" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="236" spans="52:52">
       <c r="AZ236" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="237" spans="52:52">
       <c r="AZ237" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="238" spans="52:52">
       <c r="AZ238" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="239" spans="52:52">
       <c r="AZ239" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="240" spans="52:52">
       <c r="AZ240" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="241" spans="52:52">
       <c r="AZ241" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="242" spans="52:52">
       <c r="AZ242" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="243" spans="52:52">
       <c r="AZ243" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="244" spans="52:52">
       <c r="AZ244" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="245" spans="52:52">
       <c r="AZ245" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="246" spans="52:52">
       <c r="AZ246" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="247" spans="52:52">
       <c r="AZ247" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="248" spans="52:52">
       <c r="AZ248" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="249" spans="52:52">
       <c r="AZ249" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="250" spans="52:52">
       <c r="AZ250" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="251" spans="52:52">
       <c r="AZ251" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="252" spans="52:52">
       <c r="AZ252" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="253" spans="52:52">
       <c r="AZ253" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="254" spans="52:52">
       <c r="AZ254" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="255" spans="52:52">
       <c r="AZ255" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="256" spans="52:52">
       <c r="AZ256" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="257" spans="52:52">
       <c r="AZ257" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="258" spans="52:52">
       <c r="AZ258" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="259" spans="52:52">
       <c r="AZ259" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="260" spans="52:52">
       <c r="AZ260" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="261" spans="52:52">
       <c r="AZ261" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="262" spans="52:52">
       <c r="AZ262" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="263" spans="52:52">
       <c r="AZ263" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="264" spans="52:52">
       <c r="AZ264" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="265" spans="52:52">
       <c r="AZ265" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="266" spans="52:52">
       <c r="AZ266" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="267" spans="52:52">
       <c r="AZ267" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="268" spans="52:52">
       <c r="AZ268" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="269" spans="52:52">
       <c r="AZ269" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="270" spans="52:52">
       <c r="AZ270" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="271" spans="52:52">
       <c r="AZ271" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="272" spans="52:52">
       <c r="AZ272" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="273" spans="52:52">
       <c r="AZ273" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="274" spans="52:52">
       <c r="AZ274" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="275" spans="52:52">
       <c r="AZ275" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="276" spans="52:52">
       <c r="AZ276" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="277" spans="52:52">
       <c r="AZ277" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="278" spans="52:52">
       <c r="AZ278" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="279" spans="52:52">
       <c r="AZ279" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="280" spans="52:52">
       <c r="AZ280" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="281" spans="52:52">
       <c r="AZ281" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="282" spans="52:52">
       <c r="AZ282" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="283" spans="52:52">
       <c r="AZ283" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="284" spans="52:52">
       <c r="AZ284" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="285" spans="52:52">
       <c r="AZ285" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="286" spans="52:52">
       <c r="AZ286" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="287" spans="52:52">
       <c r="AZ287" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="288" spans="52:52">
       <c r="AZ288" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="289" spans="52:52">
       <c r="AZ289" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -22,7 +22,7 @@
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$R$1:$R$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AV$1:$AV$4</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="816">
   <si>
     <t>alias</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3021,7 +3024,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3065,7 +3068,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3095,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3814,6 +3817,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3838,27 +3846,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3881,122 +3889,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4023,618 +4031,618 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -4678,1633 +4686,1633 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AS1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AV1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AZ1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BD1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AS2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AV2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AZ2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BD2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AS3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AV3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AZ3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BD3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AS4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AV4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AZ4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BD4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AS5" t="s">
         <v>116</v>
       </c>
       <c r="AZ5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BD5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="M6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R6" t="s">
         <v>116</v>
       </c>
       <c r="AS6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AZ6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BD6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="M7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AS7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AZ7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="M8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AZ8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="M9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AZ9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="M10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AZ10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="M11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AZ11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="M12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AZ12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="M13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AZ13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="M14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AZ14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="M15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AZ15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="M16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AZ16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="13:52">
       <c r="M17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AZ17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="13:52">
       <c r="M18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AZ18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="13:52">
       <c r="M19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AZ19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="13:52">
       <c r="M20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AZ20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="13:52">
       <c r="M21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AZ21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="13:52">
       <c r="M22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AZ22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="13:52">
       <c r="M23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AZ23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="13:52">
       <c r="M24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AZ24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="13:52">
       <c r="M25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AZ25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="13:52">
       <c r="M26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AZ26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="13:52">
       <c r="M27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AZ27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="13:52">
       <c r="M28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AZ28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="13:52">
       <c r="M29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AZ29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="13:52">
       <c r="M30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AZ30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="13:52">
       <c r="M31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AZ31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="13:52">
       <c r="M32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AZ32" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="52:52">
       <c r="AZ33" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="52:52">
       <c r="AZ34" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="52:52">
       <c r="AZ35" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="52:52">
       <c r="AZ36" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="52:52">
       <c r="AZ37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="52:52">
       <c r="AZ38" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="52:52">
       <c r="AZ39" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="52:52">
       <c r="AZ40" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="52:52">
       <c r="AZ41" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="52:52">
       <c r="AZ42" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="52:52">
       <c r="AZ43" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="52:52">
       <c r="AZ44" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="52:52">
       <c r="AZ45" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="52:52">
       <c r="AZ46" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="52:52">
       <c r="AZ47" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="52:52">
       <c r="AZ48" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="52:52">
       <c r="AZ49" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="52:52">
       <c r="AZ50" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="52:52">
       <c r="AZ51" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="52:52">
       <c r="AZ52" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="52:52">
       <c r="AZ53" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="52:52">
       <c r="AZ54" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="52:52">
       <c r="AZ55" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="52:52">
       <c r="AZ56" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="52:52">
       <c r="AZ57" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="52:52">
       <c r="AZ58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="52:52">
       <c r="AZ59" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="52:52">
       <c r="AZ60" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="52:52">
       <c r="AZ61" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="52:52">
       <c r="AZ62" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="52:52">
       <c r="AZ63" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="52:52">
       <c r="AZ64" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="52:52">
       <c r="AZ65" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="52:52">
       <c r="AZ66" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="52:52">
       <c r="AZ67" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="52:52">
       <c r="AZ68" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="52:52">
       <c r="AZ69" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="52:52">
       <c r="AZ70" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="52:52">
       <c r="AZ71" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="52:52">
       <c r="AZ72" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="52:52">
       <c r="AZ73" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="52:52">
       <c r="AZ74" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="52:52">
       <c r="AZ75" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="52:52">
       <c r="AZ76" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="52:52">
       <c r="AZ77" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="52:52">
       <c r="AZ78" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="52:52">
       <c r="AZ79" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="52:52">
       <c r="AZ80" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="52:52">
       <c r="AZ81" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="52:52">
       <c r="AZ82" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="52:52">
       <c r="AZ83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="52:52">
       <c r="AZ84" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="52:52">
       <c r="AZ85" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="52:52">
       <c r="AZ86" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="52:52">
       <c r="AZ87" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="52:52">
       <c r="AZ88" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="52:52">
       <c r="AZ89" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="52:52">
       <c r="AZ90" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="91" spans="52:52">
       <c r="AZ91" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="52:52">
       <c r="AZ92" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="52:52">
       <c r="AZ93" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="52:52">
       <c r="AZ94" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="52:52">
       <c r="AZ95" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="96" spans="52:52">
       <c r="AZ96" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="52:52">
       <c r="AZ97" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="52:52">
       <c r="AZ98" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="99" spans="52:52">
       <c r="AZ99" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="100" spans="52:52">
       <c r="AZ100" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="101" spans="52:52">
       <c r="AZ101" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="102" spans="52:52">
       <c r="AZ102" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="52:52">
       <c r="AZ103" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="104" spans="52:52">
       <c r="AZ104" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="52:52">
       <c r="AZ105" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="106" spans="52:52">
       <c r="AZ106" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="107" spans="52:52">
       <c r="AZ107" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="52:52">
       <c r="AZ108" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="52:52">
       <c r="AZ109" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="52:52">
       <c r="AZ110" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="52:52">
       <c r="AZ111" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="52:52">
       <c r="AZ112" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113" spans="52:52">
       <c r="AZ113" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="52:52">
       <c r="AZ114" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="115" spans="52:52">
       <c r="AZ115" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="116" spans="52:52">
       <c r="AZ116" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="117" spans="52:52">
       <c r="AZ117" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="118" spans="52:52">
       <c r="AZ118" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="119" spans="52:52">
       <c r="AZ119" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="120" spans="52:52">
       <c r="AZ120" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="121" spans="52:52">
       <c r="AZ121" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="122" spans="52:52">
       <c r="AZ122" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="123" spans="52:52">
       <c r="AZ123" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="52:52">
       <c r="AZ124" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="52:52">
       <c r="AZ125" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="126" spans="52:52">
       <c r="AZ126" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="52:52">
       <c r="AZ127" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" spans="52:52">
       <c r="AZ128" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="129" spans="52:52">
       <c r="AZ129" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="130" spans="52:52">
       <c r="AZ130" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="131" spans="52:52">
       <c r="AZ131" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="132" spans="52:52">
       <c r="AZ132" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="133" spans="52:52">
       <c r="AZ133" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="134" spans="52:52">
       <c r="AZ134" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="52:52">
       <c r="AZ135" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="52:52">
       <c r="AZ136" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="52:52">
       <c r="AZ137" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="52:52">
       <c r="AZ138" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="52:52">
       <c r="AZ139" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="140" spans="52:52">
       <c r="AZ140" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="141" spans="52:52">
       <c r="AZ141" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="142" spans="52:52">
       <c r="AZ142" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="143" spans="52:52">
       <c r="AZ143" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="144" spans="52:52">
       <c r="AZ144" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="145" spans="52:52">
       <c r="AZ145" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="146" spans="52:52">
       <c r="AZ146" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="147" spans="52:52">
       <c r="AZ147" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="148" spans="52:52">
       <c r="AZ148" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" spans="52:52">
       <c r="AZ149" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="52:52">
       <c r="AZ150" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="151" spans="52:52">
       <c r="AZ151" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="52:52">
       <c r="AZ152" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="153" spans="52:52">
       <c r="AZ153" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="52:52">
       <c r="AZ154" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="155" spans="52:52">
       <c r="AZ155" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="156" spans="52:52">
       <c r="AZ156" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="52:52">
       <c r="AZ157" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="52:52">
       <c r="AZ158" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="52:52">
       <c r="AZ159" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="52:52">
       <c r="AZ160" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="161" spans="52:52">
       <c r="AZ161" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="162" spans="52:52">
       <c r="AZ162" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="163" spans="52:52">
       <c r="AZ163" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="52:52">
       <c r="AZ164" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="165" spans="52:52">
       <c r="AZ165" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="52:52">
       <c r="AZ166" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="167" spans="52:52">
       <c r="AZ167" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="168" spans="52:52">
       <c r="AZ168" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="169" spans="52:52">
       <c r="AZ169" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="170" spans="52:52">
       <c r="AZ170" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="171" spans="52:52">
       <c r="AZ171" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="172" spans="52:52">
       <c r="AZ172" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="173" spans="52:52">
       <c r="AZ173" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="174" spans="52:52">
       <c r="AZ174" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="175" spans="52:52">
       <c r="AZ175" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" spans="52:52">
       <c r="AZ176" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="177" spans="52:52">
       <c r="AZ177" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="52:52">
       <c r="AZ178" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="179" spans="52:52">
       <c r="AZ179" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="180" spans="52:52">
       <c r="AZ180" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="181" spans="52:52">
       <c r="AZ181" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="182" spans="52:52">
       <c r="AZ182" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="183" spans="52:52">
       <c r="AZ183" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="184" spans="52:52">
       <c r="AZ184" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="185" spans="52:52">
       <c r="AZ185" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="186" spans="52:52">
       <c r="AZ186" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="187" spans="52:52">
       <c r="AZ187" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="188" spans="52:52">
       <c r="AZ188" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="189" spans="52:52">
       <c r="AZ189" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="190" spans="52:52">
       <c r="AZ190" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="191" spans="52:52">
       <c r="AZ191" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="192" spans="52:52">
       <c r="AZ192" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="193" spans="52:52">
       <c r="AZ193" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="194" spans="52:52">
       <c r="AZ194" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="195" spans="52:52">
       <c r="AZ195" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="196" spans="52:52">
       <c r="AZ196" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="197" spans="52:52">
       <c r="AZ197" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="198" spans="52:52">
       <c r="AZ198" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="199" spans="52:52">
       <c r="AZ199" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200" spans="52:52">
       <c r="AZ200" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="201" spans="52:52">
       <c r="AZ201" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="202" spans="52:52">
       <c r="AZ202" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203" spans="52:52">
       <c r="AZ203" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="204" spans="52:52">
       <c r="AZ204" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="205" spans="52:52">
       <c r="AZ205" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="206" spans="52:52">
       <c r="AZ206" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="207" spans="52:52">
       <c r="AZ207" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="208" spans="52:52">
       <c r="AZ208" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="209" spans="52:52">
       <c r="AZ209" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="210" spans="52:52">
       <c r="AZ210" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="211" spans="52:52">
       <c r="AZ211" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="212" spans="52:52">
       <c r="AZ212" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="213" spans="52:52">
       <c r="AZ213" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="214" spans="52:52">
       <c r="AZ214" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="215" spans="52:52">
       <c r="AZ215" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="216" spans="52:52">
       <c r="AZ216" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="217" spans="52:52">
       <c r="AZ217" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="218" spans="52:52">
       <c r="AZ218" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="219" spans="52:52">
       <c r="AZ219" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="220" spans="52:52">
       <c r="AZ220" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="221" spans="52:52">
       <c r="AZ221" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="222" spans="52:52">
       <c r="AZ222" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="223" spans="52:52">
       <c r="AZ223" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="224" spans="52:52">
       <c r="AZ224" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="225" spans="52:52">
       <c r="AZ225" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="226" spans="52:52">
       <c r="AZ226" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="227" spans="52:52">
       <c r="AZ227" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="228" spans="52:52">
       <c r="AZ228" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="229" spans="52:52">
       <c r="AZ229" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="230" spans="52:52">
       <c r="AZ230" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="231" spans="52:52">
       <c r="AZ231" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="232" spans="52:52">
       <c r="AZ232" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="233" spans="52:52">
       <c r="AZ233" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="234" spans="52:52">
       <c r="AZ234" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="235" spans="52:52">
       <c r="AZ235" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="236" spans="52:52">
       <c r="AZ236" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="237" spans="52:52">
       <c r="AZ237" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="238" spans="52:52">
       <c r="AZ238" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="239" spans="52:52">
       <c r="AZ239" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="240" spans="52:52">
       <c r="AZ240" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="241" spans="52:52">
       <c r="AZ241" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="242" spans="52:52">
       <c r="AZ242" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="243" spans="52:52">
       <c r="AZ243" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="244" spans="52:52">
       <c r="AZ244" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="245" spans="52:52">
       <c r="AZ245" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="246" spans="52:52">
       <c r="AZ246" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="247" spans="52:52">
       <c r="AZ247" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="248" spans="52:52">
       <c r="AZ248" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="249" spans="52:52">
       <c r="AZ249" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="250" spans="52:52">
       <c r="AZ250" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="251" spans="52:52">
       <c r="AZ251" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="252" spans="52:52">
       <c r="AZ252" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="253" spans="52:52">
       <c r="AZ253" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="254" spans="52:52">
       <c r="AZ254" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="255" spans="52:52">
       <c r="AZ255" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="256" spans="52:52">
       <c r="AZ256" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="257" spans="52:52">
       <c r="AZ257" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="258" spans="52:52">
       <c r="AZ258" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="259" spans="52:52">
       <c r="AZ259" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="260" spans="52:52">
       <c r="AZ260" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="261" spans="52:52">
       <c r="AZ261" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="262" spans="52:52">
       <c r="AZ262" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="263" spans="52:52">
       <c r="AZ263" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="264" spans="52:52">
       <c r="AZ264" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="265" spans="52:52">
       <c r="AZ265" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="266" spans="52:52">
       <c r="AZ266" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="267" spans="52:52">
       <c r="AZ267" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="268" spans="52:52">
       <c r="AZ268" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="269" spans="52:52">
       <c r="AZ269" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="270" spans="52:52">
       <c r="AZ270" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="271" spans="52:52">
       <c r="AZ271" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="272" spans="52:52">
       <c r="AZ272" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="273" spans="52:52">
       <c r="AZ273" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="274" spans="52:52">
       <c r="AZ274" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="275" spans="52:52">
       <c r="AZ275" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="276" spans="52:52">
       <c r="AZ276" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="277" spans="52:52">
       <c r="AZ277" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="278" spans="52:52">
       <c r="AZ278" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="279" spans="52:52">
       <c r="AZ279" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="280" spans="52:52">
       <c r="AZ280" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="281" spans="52:52">
       <c r="AZ281" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="282" spans="52:52">
       <c r="AZ282" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="283" spans="52:52">
       <c r="AZ283" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="284" spans="52:52">
       <c r="AZ284" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="285" spans="52:52">
       <c r="AZ285" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="286" spans="52:52">
       <c r="AZ286" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="287" spans="52:52">
       <c r="AZ287" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="288" spans="52:52">
       <c r="AZ288" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="289" spans="52:52">
       <c r="AZ289" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -22,7 +22,7 @@
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$R$1:$R$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AV$1:$AV$4</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="817">
   <si>
     <t>alias</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3024,7 +3027,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3068,7 +3071,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3098,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3822,6 +3825,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3846,27 +3854,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3889,122 +3897,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4031,618 +4039,618 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -4686,1633 +4694,1633 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AS1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AV1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AZ1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BD1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="U2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AS2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AV2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AZ2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BD2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AS3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AV3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AZ3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BD3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AS4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AV4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AZ4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BD4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AS5" t="s">
         <v>116</v>
       </c>
       <c r="AZ5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BD5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="M6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R6" t="s">
         <v>116</v>
       </c>
       <c r="AS6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AZ6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BD6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="M7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AS7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AZ7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="M8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AZ8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="M9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AZ9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="M10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AZ10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="M11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AZ11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="M12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AZ12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="M13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AZ13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="M14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AZ14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="M15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AZ15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="M16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AZ16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="13:52">
       <c r="M17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AZ17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="13:52">
       <c r="M18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AZ18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="13:52">
       <c r="M19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AZ19" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="13:52">
       <c r="M20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AZ20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="13:52">
       <c r="M21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AZ21" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="13:52">
       <c r="M22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AZ22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="13:52">
       <c r="M23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AZ23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="13:52">
       <c r="M24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AZ24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="13:52">
       <c r="M25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AZ25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="13:52">
       <c r="M26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AZ26" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="13:52">
       <c r="M27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AZ27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="13:52">
       <c r="M28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AZ28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="13:52">
       <c r="M29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AZ29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="13:52">
       <c r="M30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AZ30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="13:52">
       <c r="M31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AZ31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="13:52">
       <c r="M32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AZ32" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="52:52">
       <c r="AZ33" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="52:52">
       <c r="AZ34" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="52:52">
       <c r="AZ35" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="52:52">
       <c r="AZ36" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="52:52">
       <c r="AZ37" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="52:52">
       <c r="AZ38" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="52:52">
       <c r="AZ39" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="52:52">
       <c r="AZ40" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="52:52">
       <c r="AZ41" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="52:52">
       <c r="AZ42" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="52:52">
       <c r="AZ43" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="52:52">
       <c r="AZ44" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="52:52">
       <c r="AZ45" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="52:52">
       <c r="AZ46" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="52:52">
       <c r="AZ47" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="52:52">
       <c r="AZ48" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="52:52">
       <c r="AZ49" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="52:52">
       <c r="AZ50" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="52:52">
       <c r="AZ51" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="52:52">
       <c r="AZ52" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="52:52">
       <c r="AZ53" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="52:52">
       <c r="AZ54" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="52:52">
       <c r="AZ55" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="52:52">
       <c r="AZ56" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="52:52">
       <c r="AZ57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58" spans="52:52">
       <c r="AZ58" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="52:52">
       <c r="AZ59" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="52:52">
       <c r="AZ60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="52:52">
       <c r="AZ61" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="52:52">
       <c r="AZ62" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="52:52">
       <c r="AZ63" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="52:52">
       <c r="AZ64" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="52:52">
       <c r="AZ65" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="52:52">
       <c r="AZ66" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="52:52">
       <c r="AZ67" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="52:52">
       <c r="AZ68" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="52:52">
       <c r="AZ69" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="52:52">
       <c r="AZ70" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="52:52">
       <c r="AZ71" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="52:52">
       <c r="AZ72" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="52:52">
       <c r="AZ73" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="52:52">
       <c r="AZ74" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="52:52">
       <c r="AZ75" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="52:52">
       <c r="AZ76" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="52:52">
       <c r="AZ77" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="52:52">
       <c r="AZ78" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="52:52">
       <c r="AZ79" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="52:52">
       <c r="AZ80" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="52:52">
       <c r="AZ81" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="52:52">
       <c r="AZ82" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" spans="52:52">
       <c r="AZ83" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="52:52">
       <c r="AZ84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" spans="52:52">
       <c r="AZ85" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="52:52">
       <c r="AZ86" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="52:52">
       <c r="AZ87" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="52:52">
       <c r="AZ88" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" spans="52:52">
       <c r="AZ89" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="52:52">
       <c r="AZ90" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="91" spans="52:52">
       <c r="AZ91" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="52:52">
       <c r="AZ92" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93" spans="52:52">
       <c r="AZ93" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94" spans="52:52">
       <c r="AZ94" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" spans="52:52">
       <c r="AZ95" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="52:52">
       <c r="AZ96" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="97" spans="52:52">
       <c r="AZ97" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="98" spans="52:52">
       <c r="AZ98" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="52:52">
       <c r="AZ99" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="52:52">
       <c r="AZ100" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="101" spans="52:52">
       <c r="AZ101" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" spans="52:52">
       <c r="AZ102" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="52:52">
       <c r="AZ103" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" spans="52:52">
       <c r="AZ104" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="105" spans="52:52">
       <c r="AZ105" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" spans="52:52">
       <c r="AZ106" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107" spans="52:52">
       <c r="AZ107" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="52:52">
       <c r="AZ108" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" spans="52:52">
       <c r="AZ109" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="52:52">
       <c r="AZ110" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="52:52">
       <c r="AZ111" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112" spans="52:52">
       <c r="AZ112" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="113" spans="52:52">
       <c r="AZ113" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="114" spans="52:52">
       <c r="AZ114" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" spans="52:52">
       <c r="AZ115" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="52:52">
       <c r="AZ116" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" spans="52:52">
       <c r="AZ117" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="118" spans="52:52">
       <c r="AZ118" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" spans="52:52">
       <c r="AZ119" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="120" spans="52:52">
       <c r="AZ120" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="121" spans="52:52">
       <c r="AZ121" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122" spans="52:52">
       <c r="AZ122" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="52:52">
       <c r="AZ123" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="124" spans="52:52">
       <c r="AZ124" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="125" spans="52:52">
       <c r="AZ125" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="52:52">
       <c r="AZ126" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" spans="52:52">
       <c r="AZ127" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="128" spans="52:52">
       <c r="AZ128" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="129" spans="52:52">
       <c r="AZ129" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130" spans="52:52">
       <c r="AZ130" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="131" spans="52:52">
       <c r="AZ131" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="132" spans="52:52">
       <c r="AZ132" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="133" spans="52:52">
       <c r="AZ133" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="52:52">
       <c r="AZ134" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" spans="52:52">
       <c r="AZ135" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="136" spans="52:52">
       <c r="AZ136" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="52:52">
       <c r="AZ137" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" spans="52:52">
       <c r="AZ138" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="139" spans="52:52">
       <c r="AZ139" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="140" spans="52:52">
       <c r="AZ140" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="141" spans="52:52">
       <c r="AZ141" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" spans="52:52">
       <c r="AZ142" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" spans="52:52">
       <c r="AZ143" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="144" spans="52:52">
       <c r="AZ144" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="145" spans="52:52">
       <c r="AZ145" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="52:52">
       <c r="AZ146" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="147" spans="52:52">
       <c r="AZ147" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="148" spans="52:52">
       <c r="AZ148" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" spans="52:52">
       <c r="AZ149" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="52:52">
       <c r="AZ150" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="52:52">
       <c r="AZ151" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="152" spans="52:52">
       <c r="AZ152" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="153" spans="52:52">
       <c r="AZ153" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="154" spans="52:52">
       <c r="AZ154" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="52:52">
       <c r="AZ155" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="156" spans="52:52">
       <c r="AZ156" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="52:52">
       <c r="AZ157" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="52:52">
       <c r="AZ158" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="159" spans="52:52">
       <c r="AZ159" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="52:52">
       <c r="AZ160" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="161" spans="52:52">
       <c r="AZ161" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162" spans="52:52">
       <c r="AZ162" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="52:52">
       <c r="AZ163" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="52:52">
       <c r="AZ164" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="52:52">
       <c r="AZ165" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="166" spans="52:52">
       <c r="AZ166" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="167" spans="52:52">
       <c r="AZ167" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="168" spans="52:52">
       <c r="AZ168" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="169" spans="52:52">
       <c r="AZ169" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="170" spans="52:52">
       <c r="AZ170" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="171" spans="52:52">
       <c r="AZ171" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="172" spans="52:52">
       <c r="AZ172" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="173" spans="52:52">
       <c r="AZ173" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="174" spans="52:52">
       <c r="AZ174" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="175" spans="52:52">
       <c r="AZ175" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="176" spans="52:52">
       <c r="AZ176" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="52:52">
       <c r="AZ177" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="178" spans="52:52">
       <c r="AZ178" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="179" spans="52:52">
       <c r="AZ179" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="180" spans="52:52">
       <c r="AZ180" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="181" spans="52:52">
       <c r="AZ181" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="182" spans="52:52">
       <c r="AZ182" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="183" spans="52:52">
       <c r="AZ183" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="184" spans="52:52">
       <c r="AZ184" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="185" spans="52:52">
       <c r="AZ185" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="186" spans="52:52">
       <c r="AZ186" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="187" spans="52:52">
       <c r="AZ187" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="188" spans="52:52">
       <c r="AZ188" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="189" spans="52:52">
       <c r="AZ189" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="190" spans="52:52">
       <c r="AZ190" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="191" spans="52:52">
       <c r="AZ191" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="192" spans="52:52">
       <c r="AZ192" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="193" spans="52:52">
       <c r="AZ193" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="194" spans="52:52">
       <c r="AZ194" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="195" spans="52:52">
       <c r="AZ195" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="196" spans="52:52">
       <c r="AZ196" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="197" spans="52:52">
       <c r="AZ197" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="198" spans="52:52">
       <c r="AZ198" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="199" spans="52:52">
       <c r="AZ199" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="200" spans="52:52">
       <c r="AZ200" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="201" spans="52:52">
       <c r="AZ201" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="202" spans="52:52">
       <c r="AZ202" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="203" spans="52:52">
       <c r="AZ203" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="204" spans="52:52">
       <c r="AZ204" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="205" spans="52:52">
       <c r="AZ205" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="206" spans="52:52">
       <c r="AZ206" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="207" spans="52:52">
       <c r="AZ207" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="208" spans="52:52">
       <c r="AZ208" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="209" spans="52:52">
       <c r="AZ209" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="210" spans="52:52">
       <c r="AZ210" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="211" spans="52:52">
       <c r="AZ211" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="212" spans="52:52">
       <c r="AZ212" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="213" spans="52:52">
       <c r="AZ213" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="214" spans="52:52">
       <c r="AZ214" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="215" spans="52:52">
       <c r="AZ215" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="216" spans="52:52">
       <c r="AZ216" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="217" spans="52:52">
       <c r="AZ217" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="218" spans="52:52">
       <c r="AZ218" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="219" spans="52:52">
       <c r="AZ219" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="220" spans="52:52">
       <c r="AZ220" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="221" spans="52:52">
       <c r="AZ221" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="222" spans="52:52">
       <c r="AZ222" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="223" spans="52:52">
       <c r="AZ223" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="224" spans="52:52">
       <c r="AZ224" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="225" spans="52:52">
       <c r="AZ225" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="226" spans="52:52">
       <c r="AZ226" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="227" spans="52:52">
       <c r="AZ227" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="228" spans="52:52">
       <c r="AZ228" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="229" spans="52:52">
       <c r="AZ229" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="230" spans="52:52">
       <c r="AZ230" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="231" spans="52:52">
       <c r="AZ231" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="232" spans="52:52">
       <c r="AZ232" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="233" spans="52:52">
       <c r="AZ233" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="234" spans="52:52">
       <c r="AZ234" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="235" spans="52:52">
       <c r="AZ235" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="236" spans="52:52">
       <c r="AZ236" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="237" spans="52:52">
       <c r="AZ237" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="238" spans="52:52">
       <c r="AZ238" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="239" spans="52:52">
       <c r="AZ239" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="240" spans="52:52">
       <c r="AZ240" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="241" spans="52:52">
       <c r="AZ241" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="242" spans="52:52">
       <c r="AZ242" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="243" spans="52:52">
       <c r="AZ243" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="244" spans="52:52">
       <c r="AZ244" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="245" spans="52:52">
       <c r="AZ245" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="246" spans="52:52">
       <c r="AZ246" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="247" spans="52:52">
       <c r="AZ247" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="248" spans="52:52">
       <c r="AZ248" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="249" spans="52:52">
       <c r="AZ249" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="250" spans="52:52">
       <c r="AZ250" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="251" spans="52:52">
       <c r="AZ251" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="252" spans="52:52">
       <c r="AZ252" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="253" spans="52:52">
       <c r="AZ253" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="254" spans="52:52">
       <c r="AZ254" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="255" spans="52:52">
       <c r="AZ255" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="256" spans="52:52">
       <c r="AZ256" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="257" spans="52:52">
       <c r="AZ257" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="258" spans="52:52">
       <c r="AZ258" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="259" spans="52:52">
       <c r="AZ259" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="260" spans="52:52">
       <c r="AZ260" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="261" spans="52:52">
       <c r="AZ261" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="262" spans="52:52">
       <c r="AZ262" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="263" spans="52:52">
       <c r="AZ263" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="264" spans="52:52">
       <c r="AZ264" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="265" spans="52:52">
       <c r="AZ265" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="266" spans="52:52">
       <c r="AZ266" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="267" spans="52:52">
       <c r="AZ267" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="268" spans="52:52">
       <c r="AZ268" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="269" spans="52:52">
       <c r="AZ269" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="270" spans="52:52">
       <c r="AZ270" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="271" spans="52:52">
       <c r="AZ271" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="272" spans="52:52">
       <c r="AZ272" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="273" spans="52:52">
       <c r="AZ273" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="274" spans="52:52">
       <c r="AZ274" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="275" spans="52:52">
       <c r="AZ275" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="276" spans="52:52">
       <c r="AZ276" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="277" spans="52:52">
       <c r="AZ277" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="278" spans="52:52">
       <c r="AZ278" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="279" spans="52:52">
       <c r="AZ279" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="280" spans="52:52">
       <c r="AZ280" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="281" spans="52:52">
       <c r="AZ281" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="282" spans="52:52">
       <c r="AZ282" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="283" spans="52:52">
       <c r="AZ283" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="284" spans="52:52">
       <c r="AZ284" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="285" spans="52:52">
       <c r="AZ285" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="286" spans="52:52">
       <c r="AZ286" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="287" spans="52:52">
       <c r="AZ287" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="288" spans="52:52">
       <c r="AZ288" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="289" spans="52:52">
       <c r="AZ289" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BD$1:$BD$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$294</definedName>
     <definedName name="growthfacility">'cv_sample'!$R$1:$R$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AV$1:$AV$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="822">
   <si>
     <t>alias</t>
   </si>
@@ -865,7 +865,7 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
@@ -877,37 +877,37 @@
     <t>(Recommended) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>soil_taxonomic/FAO classification</t>
+    <t>soil_taxonomicfao_classification</t>
   </si>
   <si>
     <t>(Recommended) Soil classification from the fao world reference database for soil resources</t>
   </si>
   <si>
-    <t>soil_taxonomic/local classification</t>
+    <t>soil_taxonomiclocal_classification</t>
   </si>
   <si>
     <t>(Optional) Soil classification based on local soil classification system</t>
   </si>
   <si>
-    <t>soil_taxonomic/local classification method</t>
+    <t>soil_taxonomiclocal_classification_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the local soil classification</t>
@@ -1009,31 +1009,31 @@
     <t>Vertisol</t>
   </si>
   <si>
-    <t>soil type</t>
+    <t>soil_type</t>
   </si>
   <si>
     <t>(Optional) Description of the soil type or classification. this field accepts terms under soil (http://purl.obolibrary.org/obo/envo_00001998). multiple terms can be separated by pipes.</t>
   </si>
   <si>
-    <t>soil type method</t>
+    <t>soil_type_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining soil series name or other lower-level classification</t>
   </si>
   <si>
-    <t>soil texture measurement</t>
+    <t>soil_texture_measurement</t>
   </si>
   <si>
     <t>(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. (Units: % sand/silt/clay)</t>
   </si>
   <si>
-    <t>soil texture method</t>
+    <t>soil_texture_method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining soil texture</t>
   </si>
   <si>
-    <t>soil pH</t>
+    <t>soil_ph</t>
   </si>
   <si>
     <t>(Recommended) Ph measurement of the soil; e.g. 6.2</t>
@@ -1054,19 +1054,19 @@
     <t>open top chamber</t>
   </si>
   <si>
-    <t>growth facility</t>
+    <t>growth_facility</t>
   </si>
   <si>
     <t>(Recommended) Type of facility where the sampled plant was grown</t>
   </si>
   <si>
-    <t>plant developmental stage</t>
+    <t>plant_developmental_stage</t>
   </si>
   <si>
     <t>(Mandatory) Developmental stage at the time of sample collection; for plant ontology (po) (v 20) terms, see http://purl.bioontology.org/ontology/po, e.g. hypocotyl emergence stage (po_0007043)</t>
   </si>
   <si>
-    <t>sampled age</t>
+    <t>sampled_age</t>
   </si>
   <si>
     <t>(Optional) Age of subject at the time of sample collection; relevant scale depends on species and study; e.g. 2 weeks old</t>
@@ -1078,49 +1078,49 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>sample health state</t>
+    <t>sample_health_state</t>
   </si>
   <si>
     <t>(Recommended) Health status of the subject at the time of sample collection</t>
   </si>
   <si>
-    <t>sample wet mass</t>
+    <t>sample_wet_mass</t>
   </si>
   <si>
     <t>(Optional) Measurement of wet mass at the time of sample collection; e.g. 0.23 g</t>
   </si>
   <si>
-    <t>sample disease stage</t>
+    <t>sample_disease_stage</t>
   </si>
   <si>
     <t>(Optional) Stage of the disease at the time of sample collection, e.g. inoculation, penetration, infection, growth and reproduction, dissemination of pathogen</t>
   </si>
   <si>
-    <t>sample length</t>
+    <t>sample_length</t>
   </si>
   <si>
     <t>(Optional) Length of subject at the time of sampling, if different from the height; e.g. 2m</t>
   </si>
   <si>
-    <t>sample height</t>
+    <t>sample_height</t>
   </si>
   <si>
     <t>(Optional) Height of subject at the time of sampling, if different from the length; e.g. 0.75m</t>
   </si>
   <si>
-    <t>sample dry mass</t>
+    <t>sample_dry_mass</t>
   </si>
   <si>
     <t>(Optional) Measurement of dry mass at the time of sample collection; e.g. 0.05g</t>
   </si>
   <si>
-    <t>sample disease status</t>
+    <t>sample_disease_status</t>
   </si>
   <si>
     <t>(Recommended) List of diseases with which the subject has been diagnosed at the time of sample collection; can include multiple diagnoses; the value of the field depends on subject; e.g. charcoal rot (macrophomina phaseolina), late wilt (cephalosporium maydis)</t>
   </si>
   <si>
-    <t>sample phenotype</t>
+    <t>sample_phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of the plant from which the sample was obtained, such as colour of corolla, fruit diameter, circular leaf shape; plant trait ontology (to), phenotypic quality ontology (pato), or other ontology is recommended; e.g. stem epidermis colour (to:1000018)</t>
@@ -1132,19 +1132,19 @@
     <t>(Recommended) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Recommended) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Recommended) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
@@ -1156,7 +1156,7 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1168,19 +1168,19 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1192,13 +1192,13 @@
     <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Optional) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Optional) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
@@ -1210,13 +1210,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>sampling time point</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>sampling_time_point</t>
   </si>
   <si>
     <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
@@ -1240,19 +1240,19 @@
     <t>zoo sample</t>
   </si>
   <si>
-    <t>sample capture status</t>
+    <t>sample_capture_status</t>
   </si>
   <si>
     <t>(Optional) Reason for the sample collection.</t>
   </si>
   <si>
-    <t>organism common name</t>
+    <t>organism_common_name</t>
   </si>
   <si>
     <t>(Recommended) Common name of the subject organism, e.g. maize</t>
   </si>
   <si>
-    <t>biological status</t>
+    <t>biological_status</t>
   </si>
   <si>
     <t>(Optional) The level of genome modification; controlled vocabulary: wild, natural, semi-natural, inbred line, breeder's line, hybrid, clonal selection, mutant</t>
@@ -1270,25 +1270,25 @@
     <t>spreading</t>
   </si>
   <si>
-    <t>growth habit</t>
+    <t>growth_habit</t>
   </si>
   <si>
     <t>(Optional) Characteristic shape, appearance or growth form of a plant species</t>
   </si>
   <si>
-    <t>plant sex</t>
+    <t>plant_sex</t>
   </si>
   <si>
     <t>(Optional) Sex of the reproductive parts on the whole plant, e.g. pistilate, staminate, monoecieous, hermaphrodite</t>
   </si>
   <si>
-    <t>plant structure</t>
+    <t>plant_structure</t>
   </si>
   <si>
     <t>(Mandatory) Name of plant structure that the sample was obtained from; for plant ontology (po) terms see http://purl.bioontology.org/ontology/po, e.g. petiole epidermis (po_0000051); if an individual flower is sampled the sex of it can be recorded here</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1507,9 +1507,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1528,6 +1525,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1729,6 +1729,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1738,9 +1741,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1849,6 +1849,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1924,6 +1927,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1945,6 +1951,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1990,6 +1999,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2002,6 +2014,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2011,9 +2026,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2038,6 +2050,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2098,12 +2113,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2161,25 +2176,25 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>climate environment</t>
+    <t>climate_environment</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to a particular climate; can include multiple climates</t>
   </si>
   <si>
-    <t>gaseous environment</t>
+    <t>gaseous_environment</t>
   </si>
   <si>
     <t>(Optional) Use of conditions with differing gaseous environments; should include the name of gaseous compound, amount administered, treatment duration, interval and total experimental duration; can include multiple gaseous environment regimens</t>
   </si>
   <si>
-    <t>seasonal environment</t>
+    <t>seasonal_environment</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to a particular season (e.g. winter, summer, rabi, rainy etc.)</t>
@@ -2203,19 +2218,19 @@
     <t>well</t>
   </si>
   <si>
-    <t>drainage classification</t>
+    <t>drainage_classification</t>
   </si>
   <si>
     <t>(Optional) Drainage classification from a standard system such as the usda system</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Recommended) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>source material description</t>
+    <t>source_material_description</t>
   </si>
   <si>
     <t>(Optional) Further information to clarify the nature of the specimen or population used that is not collected elsewhere, e.g. if source was derived from accessioned stock, describe how it links to the original material</t>
@@ -2233,145 +2248,145 @@
     <t>(Optional) Name or code for genotype of organism</t>
   </si>
   <si>
-    <t>genetic modification</t>
+    <t>genetic_modification</t>
   </si>
   <si>
     <t>(Optional) A genetic modification of the genome of an organism which may occur naturally by spontaneous mutation, or be introduced by some experimental means. examples of genetic modification include specification of a transgene or the gene knocked-out or details of transient transfection.</t>
   </si>
   <si>
-    <t>subspecific genetic lineage rank</t>
+    <t>subspecific_genetic_lineage_rank</t>
   </si>
   <si>
     <t>(Recommended) Further information about the genetic distinctness of this lineage by recording additional information i.e. variety, cultivar, ecotype, inbred line,; it can also contain alternative taxonomic information</t>
   </si>
   <si>
-    <t>subspecific genetic lineage name</t>
+    <t>subspecific_genetic_lineage_name</t>
   </si>
   <si>
     <t>(Recommended) Name of the infraspecific rank, e.g ecotype col-0</t>
   </si>
   <si>
-    <t>organism phenotype</t>
+    <t>organism_phenotype</t>
   </si>
   <si>
     <t>(Optional) Most relevant phenotypic traits of the subject; for phenotypic quality ontology (pato) (v 2013-10-28) terms, please see http://purl.bioontology.org/ontology/pato, e.g. bifurcated (pato_0001784); terms from trait ontology (to), plant ontology (po) or crop ontology (co) are also accepted; include name/method/scale for each trait; can include multiple traits</t>
   </si>
   <si>
-    <t>ancestral data</t>
+    <t>ancestral_data</t>
   </si>
   <si>
     <t>(Optional) Information about either pedigree or other description of ancestral information (e.g. parental variety in case of mutant or selection), e.g. a/3*b (meaning [(a x b) x b] x b)</t>
   </si>
   <si>
-    <t>plant growth medium</t>
+    <t>plant_growth_medium</t>
   </si>
   <si>
     <t>(Mandatory) Specification of the media for growing the plants or tissue cultured samples, e.g. soil, aeroponic, hydroponic, in vitro solid culture medium, in vitro liquid culture medium. recommended value is a specific value from eo:plant growth medium (follow this link for terms http://purl.obolibrary.org/obo/eo_0007147).</t>
   </si>
   <si>
-    <t>rooting conditions</t>
+    <t>rooting_conditions</t>
   </si>
   <si>
     <t>(Recommended) Relevant rooting conditions, such as field plot size, sowing density, container dimensions, number of plants per container</t>
   </si>
   <si>
-    <t>culture rooting medium</t>
+    <t>culture_rooting_medium</t>
   </si>
   <si>
     <t>(Recommended) Name or reference for the hydroponic or in vitro culture rooting medium, can be a name of a commonly used medium or reference to a specific medium; e.g. murashige and skoog medium, if the medium has not been formally published, use the rooting medium descriptors</t>
   </si>
   <si>
-    <t>rooting medium macronutrients</t>
+    <t>rooting_medium_macronutrients</t>
   </si>
   <si>
     <t>(Recommended) Measurement of the culture rooting medium macronutrients (n,p, k, ca, mg, s); e.g. kh2po4 (170mg/l)</t>
   </si>
   <si>
-    <t>rooting medium micronutrients</t>
+    <t>rooting_medium_micronutrients</t>
   </si>
   <si>
     <t>(Recommended) Measurement of the culture rooting medium micronutrients (fe, mn, zn, b, cu, mo); e.g. h3bo3 (6.2mg/l)</t>
   </si>
   <si>
-    <t>rooting medium organic supplements</t>
+    <t>rooting_medium_organic_supplements</t>
   </si>
   <si>
     <t>(Recommended) Organic supplements of the culture rooting medium, such as vitaimins, amino acids, organic acids, antibiotics activated charcoal; e.g. nicotinic acid (0.5mg/l)</t>
   </si>
   <si>
-    <t>rooting medium carbon</t>
+    <t>rooting_medium_carbon</t>
   </si>
   <si>
     <t>(Recommended) Source of organic carbon in the culture rooting medium; e.g. sucrose</t>
   </si>
   <si>
-    <t>rooting medium regulators</t>
+    <t>rooting_medium_regulators</t>
   </si>
   <si>
     <t>(Recommended) Growth regulators in the culture rooting medium, such as cytokinins, auxins, gybberellins, abscisic acid; e.g. 0.5mg/l naa</t>
   </si>
   <si>
-    <t>rooting medium solidifier</t>
+    <t>rooting_medium_solidifier</t>
   </si>
   <si>
     <t>(Recommended) Specification of the solidifying agent in the culture rooting medium; e.g. agar</t>
   </si>
   <si>
-    <t>rooting medium pH</t>
+    <t>rooting_medium_ph</t>
   </si>
   <si>
     <t>(Recommended) Ph measurement of the culture rooting medium; e.g. 5.5</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Mandatory) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>air temperature regimen</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>air_temperature_regimen</t>
   </si>
   <si>
     <t>(Recommended) Information about treatment involving an exposure to varying temperatures; should include the temperature, treatment duration, interval and total experimental duration; can include different temperature regimens</t>
   </si>
   <si>
-    <t>antibiotic regimen</t>
+    <t>antibiotic_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving antibiotic administration; should include the name of antibiotic, amount administered, treatment duration, interval and total experimental duration; can include multiple antibiotic regimens</t>
   </si>
   <si>
-    <t>chemical mutagen</t>
+    <t>chemical_mutagen</t>
   </si>
   <si>
     <t>(Optional) Treatment involving use of mutagens; should include the name of mutagen, amount administered, treatment duration, interval and total experimental duration; can include multiple mutagen regimens</t>
   </si>
   <si>
-    <t>fertilizer administration</t>
+    <t>fertilizer_administration</t>
   </si>
   <si>
     <t>(Optional) Type of fertilizer or amendment added to the soil or water for the purpose of improving substrate health and quality for plant growth. this field accepts terms listed under agronomic fertilizer (http://purl.obolibrary.org/obo/agro_00002062). multiple terms may apply and can be separated by pipes, listing in reverse chronological order. n.b. old ena definition as "fertilizer regimen": information about treatment involving the use of fertilizers; should include the name fertilizer, amount administered, treatment duration, interval and total experimental duration; can include multiple fertilizer regimens</t>
   </si>
   <si>
-    <t>fungicide regimen</t>
+    <t>fungicide_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of fungicides; should include the name of fungicide, amount administered, treatment duration, interval and total experimental duration; can include multiple fungicide regimens</t>
@@ -2383,109 +2398,109 @@
     <t>(Optional) Information about treatment involving use of gravity factor to study various types of responses in presence, absence or modified levels of gravity; can include multiple treatments</t>
   </si>
   <si>
-    <t>growth hormone regimen</t>
+    <t>growth_hormone_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of growth hormones; should include the name of growth hormone, amount administered, treatment duration, interval and total experimental duration; can include multiple growth hormone regimens</t>
   </si>
   <si>
-    <t>herbicide regimen</t>
+    <t>herbicide_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of herbicides; information about treatment involving use of growth hormones; should include the name of herbicide, amount administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
   </si>
   <si>
-    <t>humidity regimen</t>
+    <t>humidity_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to varying degree of humidity; information about treatment involving use of growth hormones; should include amount of humidity administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
   </si>
   <si>
-    <t>mineral nutrient regimen</t>
+    <t>mineral_nutrient_regimen</t>
   </si>
   <si>
     <t>(Recommended) Information about treatment involving the use of mineral supplements; should include the name of mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple mineral nutrient regimens</t>
   </si>
   <si>
-    <t>non-mineral nutrient regimen</t>
+    <t>nonmineral_nutrient_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving the exposure of plant to non-mineral nutrient such as oxygen, hydrogen or carbon; should include the name of non-mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple non-mineral nutrient regimens</t>
   </si>
   <si>
-    <t>pesticide regimen</t>
+    <t>pesticide_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of insecticides; should include the name of pesticide, amount administered, treatment duration, interval and total experimental duration; can include multiple pesticide regimens</t>
   </si>
   <si>
-    <t>pH regimen</t>
+    <t>ph_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving exposure of plants to varying levels of ph of the growth media; can include multiple regimen</t>
   </si>
   <si>
-    <t>radiation regimen</t>
+    <t>radiation_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving exposure of plant or a plant part to a particular radiation regimen; should include the radiation type, amount or intensity administered, treatment duration, interval and total experimental duration; can include multiple radiation regimens</t>
   </si>
   <si>
-    <t>rainfall regimen</t>
+    <t>rainfall_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to a given amount of rainfall; can include multiple regimens</t>
   </si>
   <si>
-    <t>salt regimen</t>
+    <t>salt_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of salts as supplement to liquid and soil growth media; should include the name of salt, amount administered, treatment duration, interval and total experimental duration; can include multiple salt regimens</t>
   </si>
   <si>
-    <t>standing water regimen</t>
+    <t>standing_water_regimen</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to standing water during a plant's life span, types can be flood water or standing water; can include multiple regimens</t>
   </si>
   <si>
-    <t>watering regimen</t>
+    <t>watering_regimen</t>
   </si>
   <si>
     <t>(Recommended) Information about treatment involving an exposure to watering frequencies; can include multiple regimens</t>
   </si>
   <si>
-    <t>water temperature regimen</t>
+    <t>water_temperature_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to water with varying degree of temperature; can include multiple regimens</t>
   </si>
   <si>
-    <t>plant treatment</t>
+    <t>plant_treatment</t>
   </si>
   <si>
     <t>(Recommended) Ontology term(s) that describes the plant treatment or relevant environmental conditions, recommend use of plant environment ontology (eo) or other ontology, such as xeml environment ontology (xeo) or crop ontology (co), more specific fields in the treatment section can be used in addition to or in place of this field</t>
   </si>
   <si>
-    <t>light regimen</t>
+    <t>light_regimen</t>
   </si>
   <si>
     <t>(Recommended) Information about treatment involving an exposure to light, this includes both light intensity and quality</t>
   </si>
   <si>
-    <t>biotic regimen</t>
+    <t>biotic_regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of biotic factors, such as bacteria, viruses or fungi</t>
   </si>
   <si>
-    <t>mechanical damage</t>
+    <t>mechanical_damage</t>
   </si>
   <si>
     <t>(Optional) Information about any mechanical damage exerted on the plant; can include multiple damages and sites</t>
   </si>
   <si>
-    <t>chemical administration</t>
+    <t>chemical_administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4186,160 +4201,160 @@
         <v>416</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="150" customHeight="1">
@@ -4497,160 +4512,160 @@
         <v>417</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -4686,7 +4701,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BD289"/>
+  <dimension ref="E1:BD294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4715,7 +4730,7 @@
         <v>418</v>
       </c>
       <c r="BD1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="5:56">
@@ -4741,7 +4756,7 @@
         <v>419</v>
       </c>
       <c r="BD2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="5:56">
@@ -4764,7 +4779,7 @@
         <v>420</v>
       </c>
       <c r="BD3" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="5:56">
@@ -4787,7 +4802,7 @@
         <v>421</v>
       </c>
       <c r="BD4" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="5:56">
@@ -4807,7 +4822,7 @@
         <v>422</v>
       </c>
       <c r="BD5" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="5:56">
@@ -4824,7 +4839,7 @@
         <v>423</v>
       </c>
       <c r="BD6" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="5:56">
@@ -6321,6 +6336,31 @@
     <row r="289" spans="52:52">
       <c r="AZ289" t="s">
         <v>706</v>
+      </c>
+    </row>
+    <row r="290" spans="52:52">
+      <c r="AZ290" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="291" spans="52:52">
+      <c r="AZ291" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="292" spans="52:52">
+      <c r="AZ292" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="293" spans="52:52">
+      <c r="AZ293" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="294" spans="52:52">
+      <c r="AZ294" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BD$1:$BD$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
     <definedName name="growthfacility">'cv_sample'!$R$1:$R$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AV$1:$AV$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="817">
   <si>
     <t>alias</t>
   </si>
@@ -865,7 +865,7 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
@@ -877,37 +877,37 @@
     <t>(Recommended) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>soil_taxonomicfao_classification</t>
+    <t>soil_taxonomic/FAO classification</t>
   </si>
   <si>
     <t>(Recommended) Soil classification from the fao world reference database for soil resources</t>
   </si>
   <si>
-    <t>soil_taxonomiclocal_classification</t>
+    <t>soil_taxonomic/local classification</t>
   </si>
   <si>
     <t>(Optional) Soil classification based on local soil classification system</t>
   </si>
   <si>
-    <t>soil_taxonomiclocal_classification_method</t>
+    <t>soil_taxonomic/local classification method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining the local soil classification</t>
@@ -1009,31 +1009,31 @@
     <t>Vertisol</t>
   </si>
   <si>
-    <t>soil_type</t>
+    <t>soil type</t>
   </si>
   <si>
     <t>(Optional) Description of the soil type or classification. this field accepts terms under soil (http://purl.obolibrary.org/obo/envo_00001998). multiple terms can be separated by pipes.</t>
   </si>
   <si>
-    <t>soil_type_method</t>
+    <t>soil type method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining soil series name or other lower-level classification</t>
   </si>
   <si>
-    <t>soil_texture_measurement</t>
+    <t>soil texture measurement</t>
   </si>
   <si>
     <t>(Optional) The relative proportion of different grain sizes of mineral particles in a soil, as described using a standard system; express as % sand (50 um to 2 mm), silt (2 um to 50 um), and clay (&lt;2 um) with textural name (e.g., silty clay loam) optional. (Units: % sand/silt/clay)</t>
   </si>
   <si>
-    <t>soil_texture_method</t>
+    <t>soil texture method</t>
   </si>
   <si>
     <t>(Optional) Reference or method used in determining soil texture</t>
   </si>
   <si>
-    <t>soil_ph</t>
+    <t>soil pH</t>
   </si>
   <si>
     <t>(Recommended) Ph measurement of the soil; e.g. 6.2</t>
@@ -1054,19 +1054,19 @@
     <t>open top chamber</t>
   </si>
   <si>
-    <t>growth_facility</t>
+    <t>growth facility</t>
   </si>
   <si>
     <t>(Recommended) Type of facility where the sampled plant was grown</t>
   </si>
   <si>
-    <t>plant_developmental_stage</t>
+    <t>plant developmental stage</t>
   </si>
   <si>
     <t>(Mandatory) Developmental stage at the time of sample collection; for plant ontology (po) (v 20) terms, see http://purl.bioontology.org/ontology/po, e.g. hypocotyl emergence stage (po_0007043)</t>
   </si>
   <si>
-    <t>sampled_age</t>
+    <t>sampled age</t>
   </si>
   <si>
     <t>(Optional) Age of subject at the time of sample collection; relevant scale depends on species and study; e.g. 2 weeks old</t>
@@ -1078,49 +1078,49 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>sample_health_state</t>
+    <t>sample health state</t>
   </si>
   <si>
     <t>(Recommended) Health status of the subject at the time of sample collection</t>
   </si>
   <si>
-    <t>sample_wet_mass</t>
+    <t>sample wet mass</t>
   </si>
   <si>
     <t>(Optional) Measurement of wet mass at the time of sample collection; e.g. 0.23 g</t>
   </si>
   <si>
-    <t>sample_disease_stage</t>
+    <t>sample disease stage</t>
   </si>
   <si>
     <t>(Optional) Stage of the disease at the time of sample collection, e.g. inoculation, penetration, infection, growth and reproduction, dissemination of pathogen</t>
   </si>
   <si>
-    <t>sample_length</t>
+    <t>sample length</t>
   </si>
   <si>
     <t>(Optional) Length of subject at the time of sampling, if different from the height; e.g. 2m</t>
   </si>
   <si>
-    <t>sample_height</t>
+    <t>sample height</t>
   </si>
   <si>
     <t>(Optional) Height of subject at the time of sampling, if different from the length; e.g. 0.75m</t>
   </si>
   <si>
-    <t>sample_dry_mass</t>
+    <t>sample dry mass</t>
   </si>
   <si>
     <t>(Optional) Measurement of dry mass at the time of sample collection; e.g. 0.05g</t>
   </si>
   <si>
-    <t>sample_disease_status</t>
+    <t>sample disease status</t>
   </si>
   <si>
     <t>(Recommended) List of diseases with which the subject has been diagnosed at the time of sample collection; can include multiple diagnoses; the value of the field depends on subject; e.g. charcoal rot (macrophomina phaseolina), late wilt (cephalosporium maydis)</t>
   </si>
   <si>
-    <t>sample_phenotype</t>
+    <t>sample phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of the plant from which the sample was obtained, such as colour of corolla, fruit diameter, circular leaf shape; plant trait ontology (to), phenotypic quality ontology (pato), or other ontology is recommended; e.g. stem epidermis colour (to:1000018)</t>
@@ -1132,19 +1132,19 @@
     <t>(Recommended) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Recommended) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Recommended) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
@@ -1156,7 +1156,7 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1168,19 +1168,19 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1192,13 +1192,13 @@
     <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Optional) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Optional) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
@@ -1210,13 +1210,13 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>sampling_time_point</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>sampling time point</t>
   </si>
   <si>
     <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
@@ -1240,19 +1240,19 @@
     <t>zoo sample</t>
   </si>
   <si>
-    <t>sample_capture_status</t>
+    <t>sample capture status</t>
   </si>
   <si>
     <t>(Optional) Reason for the sample collection.</t>
   </si>
   <si>
-    <t>organism_common_name</t>
+    <t>organism common name</t>
   </si>
   <si>
     <t>(Recommended) Common name of the subject organism, e.g. maize</t>
   </si>
   <si>
-    <t>biological_status</t>
+    <t>biological status</t>
   </si>
   <si>
     <t>(Optional) The level of genome modification; controlled vocabulary: wild, natural, semi-natural, inbred line, breeder's line, hybrid, clonal selection, mutant</t>
@@ -1270,25 +1270,25 @@
     <t>spreading</t>
   </si>
   <si>
-    <t>growth_habit</t>
+    <t>growth habit</t>
   </si>
   <si>
     <t>(Optional) Characteristic shape, appearance or growth form of a plant species</t>
   </si>
   <si>
-    <t>plant_sex</t>
+    <t>plant sex</t>
   </si>
   <si>
     <t>(Optional) Sex of the reproductive parts on the whole plant, e.g. pistilate, staminate, monoecieous, hermaphrodite</t>
   </si>
   <si>
-    <t>plant_structure</t>
+    <t>plant structure</t>
   </si>
   <si>
     <t>(Mandatory) Name of plant structure that the sample was obtained from; for plant ontology (po) terms see http://purl.bioontology.org/ontology/po, e.g. petiole epidermis (po_0000051); if an individual flower is sampled the sex of it can be recorded here</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1507,6 +1507,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1525,9 +1528,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1729,9 +1729,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1741,6 +1738,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1849,9 +1849,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1927,9 +1924,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1951,9 +1945,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1999,9 +1990,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2014,9 +2002,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2026,6 +2011,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2050,9 +2038,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2113,12 +2098,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2176,25 +2161,25 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>climate_environment</t>
+    <t>climate environment</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to a particular climate; can include multiple climates</t>
   </si>
   <si>
-    <t>gaseous_environment</t>
+    <t>gaseous environment</t>
   </si>
   <si>
     <t>(Optional) Use of conditions with differing gaseous environments; should include the name of gaseous compound, amount administered, treatment duration, interval and total experimental duration; can include multiple gaseous environment regimens</t>
   </si>
   <si>
-    <t>seasonal_environment</t>
+    <t>seasonal environment</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to a particular season (e.g. winter, summer, rabi, rainy etc.)</t>
@@ -2218,19 +2203,19 @@
     <t>well</t>
   </si>
   <si>
-    <t>drainage_classification</t>
+    <t>drainage classification</t>
   </si>
   <si>
     <t>(Optional) Drainage classification from a standard system such as the usda system</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Recommended) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>source_material_description</t>
+    <t>source material description</t>
   </si>
   <si>
     <t>(Optional) Further information to clarify the nature of the specimen or population used that is not collected elsewhere, e.g. if source was derived from accessioned stock, describe how it links to the original material</t>
@@ -2248,145 +2233,145 @@
     <t>(Optional) Name or code for genotype of organism</t>
   </si>
   <si>
-    <t>genetic_modification</t>
+    <t>genetic modification</t>
   </si>
   <si>
     <t>(Optional) A genetic modification of the genome of an organism which may occur naturally by spontaneous mutation, or be introduced by some experimental means. examples of genetic modification include specification of a transgene or the gene knocked-out or details of transient transfection.</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage_rank</t>
+    <t>subspecific genetic lineage rank</t>
   </si>
   <si>
     <t>(Recommended) Further information about the genetic distinctness of this lineage by recording additional information i.e. variety, cultivar, ecotype, inbred line,; it can also contain alternative taxonomic information</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage_name</t>
+    <t>subspecific genetic lineage name</t>
   </si>
   <si>
     <t>(Recommended) Name of the infraspecific rank, e.g ecotype col-0</t>
   </si>
   <si>
-    <t>organism_phenotype</t>
+    <t>organism phenotype</t>
   </si>
   <si>
     <t>(Optional) Most relevant phenotypic traits of the subject; for phenotypic quality ontology (pato) (v 2013-10-28) terms, please see http://purl.bioontology.org/ontology/pato, e.g. bifurcated (pato_0001784); terms from trait ontology (to), plant ontology (po) or crop ontology (co) are also accepted; include name/method/scale for each trait; can include multiple traits</t>
   </si>
   <si>
-    <t>ancestral_data</t>
+    <t>ancestral data</t>
   </si>
   <si>
     <t>(Optional) Information about either pedigree or other description of ancestral information (e.g. parental variety in case of mutant or selection), e.g. a/3*b (meaning [(a x b) x b] x b)</t>
   </si>
   <si>
-    <t>plant_growth_medium</t>
+    <t>plant growth medium</t>
   </si>
   <si>
     <t>(Mandatory) Specification of the media for growing the plants or tissue cultured samples, e.g. soil, aeroponic, hydroponic, in vitro solid culture medium, in vitro liquid culture medium. recommended value is a specific value from eo:plant growth medium (follow this link for terms http://purl.obolibrary.org/obo/eo_0007147).</t>
   </si>
   <si>
-    <t>rooting_conditions</t>
+    <t>rooting conditions</t>
   </si>
   <si>
     <t>(Recommended) Relevant rooting conditions, such as field plot size, sowing density, container dimensions, number of plants per container</t>
   </si>
   <si>
-    <t>culture_rooting_medium</t>
+    <t>culture rooting medium</t>
   </si>
   <si>
     <t>(Recommended) Name or reference for the hydroponic or in vitro culture rooting medium, can be a name of a commonly used medium or reference to a specific medium; e.g. murashige and skoog medium, if the medium has not been formally published, use the rooting medium descriptors</t>
   </si>
   <si>
-    <t>rooting_medium_macronutrients</t>
+    <t>rooting medium macronutrients</t>
   </si>
   <si>
     <t>(Recommended) Measurement of the culture rooting medium macronutrients (n,p, k, ca, mg, s); e.g. kh2po4 (170mg/l)</t>
   </si>
   <si>
-    <t>rooting_medium_micronutrients</t>
+    <t>rooting medium micronutrients</t>
   </si>
   <si>
     <t>(Recommended) Measurement of the culture rooting medium micronutrients (fe, mn, zn, b, cu, mo); e.g. h3bo3 (6.2mg/l)</t>
   </si>
   <si>
-    <t>rooting_medium_organic_supplements</t>
+    <t>rooting medium organic supplements</t>
   </si>
   <si>
     <t>(Recommended) Organic supplements of the culture rooting medium, such as vitaimins, amino acids, organic acids, antibiotics activated charcoal; e.g. nicotinic acid (0.5mg/l)</t>
   </si>
   <si>
-    <t>rooting_medium_carbon</t>
+    <t>rooting medium carbon</t>
   </si>
   <si>
     <t>(Recommended) Source of organic carbon in the culture rooting medium; e.g. sucrose</t>
   </si>
   <si>
-    <t>rooting_medium_regulators</t>
+    <t>rooting medium regulators</t>
   </si>
   <si>
     <t>(Recommended) Growth regulators in the culture rooting medium, such as cytokinins, auxins, gybberellins, abscisic acid; e.g. 0.5mg/l naa</t>
   </si>
   <si>
-    <t>rooting_medium_solidifier</t>
+    <t>rooting medium solidifier</t>
   </si>
   <si>
     <t>(Recommended) Specification of the solidifying agent in the culture rooting medium; e.g. agar</t>
   </si>
   <si>
-    <t>rooting_medium_ph</t>
+    <t>rooting medium pH</t>
   </si>
   <si>
     <t>(Recommended) Ph measurement of the culture rooting medium; e.g. 5.5</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Mandatory) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>air_temperature_regimen</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>air temperature regimen</t>
   </si>
   <si>
     <t>(Recommended) Information about treatment involving an exposure to varying temperatures; should include the temperature, treatment duration, interval and total experimental duration; can include different temperature regimens</t>
   </si>
   <si>
-    <t>antibiotic_regimen</t>
+    <t>antibiotic regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving antibiotic administration; should include the name of antibiotic, amount administered, treatment duration, interval and total experimental duration; can include multiple antibiotic regimens</t>
   </si>
   <si>
-    <t>chemical_mutagen</t>
+    <t>chemical mutagen</t>
   </si>
   <si>
     <t>(Optional) Treatment involving use of mutagens; should include the name of mutagen, amount administered, treatment duration, interval and total experimental duration; can include multiple mutagen regimens</t>
   </si>
   <si>
-    <t>fertilizer_administration</t>
+    <t>fertilizer administration</t>
   </si>
   <si>
     <t>(Optional) Type of fertilizer or amendment added to the soil or water for the purpose of improving substrate health and quality for plant growth. this field accepts terms listed under agronomic fertilizer (http://purl.obolibrary.org/obo/agro_00002062). multiple terms may apply and can be separated by pipes, listing in reverse chronological order. n.b. old ena definition as "fertilizer regimen": information about treatment involving the use of fertilizers; should include the name fertilizer, amount administered, treatment duration, interval and total experimental duration; can include multiple fertilizer regimens</t>
   </si>
   <si>
-    <t>fungicide_regimen</t>
+    <t>fungicide regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of fungicides; should include the name of fungicide, amount administered, treatment duration, interval and total experimental duration; can include multiple fungicide regimens</t>
@@ -2398,109 +2383,109 @@
     <t>(Optional) Information about treatment involving use of gravity factor to study various types of responses in presence, absence or modified levels of gravity; can include multiple treatments</t>
   </si>
   <si>
-    <t>growth_hormone_regimen</t>
+    <t>growth hormone regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of growth hormones; should include the name of growth hormone, amount administered, treatment duration, interval and total experimental duration; can include multiple growth hormone regimens</t>
   </si>
   <si>
-    <t>herbicide_regimen</t>
+    <t>herbicide regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of herbicides; information about treatment involving use of growth hormones; should include the name of herbicide, amount administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
   </si>
   <si>
-    <t>humidity_regimen</t>
+    <t>humidity regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to varying degree of humidity; information about treatment involving use of growth hormones; should include amount of humidity administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
   </si>
   <si>
-    <t>mineral_nutrient_regimen</t>
+    <t>mineral nutrient regimen</t>
   </si>
   <si>
     <t>(Recommended) Information about treatment involving the use of mineral supplements; should include the name of mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple mineral nutrient regimens</t>
   </si>
   <si>
-    <t>nonmineral_nutrient_regimen</t>
+    <t>non-mineral nutrient regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving the exposure of plant to non-mineral nutrient such as oxygen, hydrogen or carbon; should include the name of non-mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple non-mineral nutrient regimens</t>
   </si>
   <si>
-    <t>pesticide_regimen</t>
+    <t>pesticide regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of insecticides; should include the name of pesticide, amount administered, treatment duration, interval and total experimental duration; can include multiple pesticide regimens</t>
   </si>
   <si>
-    <t>ph_regimen</t>
+    <t>pH regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving exposure of plants to varying levels of ph of the growth media; can include multiple regimen</t>
   </si>
   <si>
-    <t>radiation_regimen</t>
+    <t>radiation regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving exposure of plant or a plant part to a particular radiation regimen; should include the radiation type, amount or intensity administered, treatment duration, interval and total experimental duration; can include multiple radiation regimens</t>
   </si>
   <si>
-    <t>rainfall_regimen</t>
+    <t>rainfall regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to a given amount of rainfall; can include multiple regimens</t>
   </si>
   <si>
-    <t>salt_regimen</t>
+    <t>salt regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of salts as supplement to liquid and soil growth media; should include the name of salt, amount administered, treatment duration, interval and total experimental duration; can include multiple salt regimens</t>
   </si>
   <si>
-    <t>standing_water_regimen</t>
+    <t>standing water regimen</t>
   </si>
   <si>
     <t>(Optional) Treatment involving an exposure to standing water during a plant's life span, types can be flood water or standing water; can include multiple regimens</t>
   </si>
   <si>
-    <t>watering_regimen</t>
+    <t>watering regimen</t>
   </si>
   <si>
     <t>(Recommended) Information about treatment involving an exposure to watering frequencies; can include multiple regimens</t>
   </si>
   <si>
-    <t>water_temperature_regimen</t>
+    <t>water temperature regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving an exposure to water with varying degree of temperature; can include multiple regimens</t>
   </si>
   <si>
-    <t>plant_treatment</t>
+    <t>plant treatment</t>
   </si>
   <si>
     <t>(Recommended) Ontology term(s) that describes the plant treatment or relevant environmental conditions, recommend use of plant environment ontology (eo) or other ontology, such as xeml environment ontology (xeo) or crop ontology (co), more specific fields in the treatment section can be used in addition to or in place of this field</t>
   </si>
   <si>
-    <t>light_regimen</t>
+    <t>light regimen</t>
   </si>
   <si>
     <t>(Recommended) Information about treatment involving an exposure to light, this includes both light intensity and quality</t>
   </si>
   <si>
-    <t>biotic_regimen</t>
+    <t>biotic regimen</t>
   </si>
   <si>
     <t>(Optional) Information about treatment involving use of biotic factors, such as bacteria, viruses or fungi</t>
   </si>
   <si>
-    <t>mechanical_damage</t>
+    <t>mechanical damage</t>
   </si>
   <si>
     <t>(Optional) Information about any mechanical damage exerted on the plant; can include multiple damages and sites</t>
   </si>
   <si>
-    <t>chemical_administration</t>
+    <t>chemical administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4201,160 +4186,160 @@
         <v>416</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="150" customHeight="1">
@@ -4512,160 +4497,160 @@
         <v>417</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -4701,7 +4686,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BD294"/>
+  <dimension ref="E1:BD289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4730,7 +4715,7 @@
         <v>418</v>
       </c>
       <c r="BD1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="5:56">
@@ -4756,7 +4741,7 @@
         <v>419</v>
       </c>
       <c r="BD2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="5:56">
@@ -4779,7 +4764,7 @@
         <v>420</v>
       </c>
       <c r="BD3" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="5:56">
@@ -4802,7 +4787,7 @@
         <v>421</v>
       </c>
       <c r="BD4" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="5:56">
@@ -4822,7 +4807,7 @@
         <v>422</v>
       </c>
       <c r="BD5" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="5:56">
@@ -4839,7 +4824,7 @@
         <v>423</v>
       </c>
       <c r="BD6" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="5:56">
@@ -6336,31 +6321,6 @@
     <row r="289" spans="52:52">
       <c r="AZ289" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="290" spans="52:52">
-      <c r="AZ290" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="291" spans="52:52">
-      <c r="AZ291" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="292" spans="52:52">
-      <c r="AZ292" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="293" spans="52:52">
-      <c r="AZ293" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="294" spans="52:52">
-      <c r="AZ294" t="s">
-        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -17,20 +17,20 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="drainageclassification">'cv_sample'!$BD$1:$BD$6</definedName>
+    <definedName name="drainageclassification">'cv_sample'!$BF$1:$BF$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AZ$1:$AZ$289</definedName>
-    <definedName name="growthfacility">'cv_sample'!$R$1:$R$6</definedName>
-    <definedName name="growthhabit">'cv_sample'!$AV$1:$AV$4</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BB$1:$BB$289</definedName>
+    <definedName name="growthfacility">'cv_sample'!$T$1:$T$6</definedName>
+    <definedName name="growthhabit">'cv_sample'!$AX$1:$AX$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$E$1:$E$5</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$G$1:$G$5</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$AS$1:$AS$7</definedName>
-    <definedName name="samplehealthstate">'cv_sample'!$U$1:$U$2</definedName>
-    <definedName name="soiltype">'cv_sample'!$M$1:$M$32</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$AU$1:$AU$7</definedName>
+    <definedName name="samplehealthstate">'cv_sample'!$W$1:$W$2</definedName>
+    <definedName name="soiltype">'cv_sample'!$O$1:$O$32</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="821">
   <si>
     <t>alias</t>
   </si>
@@ -842,6 +842,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4022,7 +4034,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CY2"/>
+  <dimension ref="A1:DA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4031,7 +4043,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103">
+    <row r="1" spans="1:105">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4045,10 +4057,10 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>279</v>
@@ -4069,10 +4081,10 @@
         <v>289</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>327</v>
@@ -4084,19 +4096,19 @@
         <v>331</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>350</v>
@@ -4165,19 +4177,19 @@
         <v>392</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>404</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>414</v>
@@ -4186,10 +4198,10 @@
         <v>416</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>707</v>
+        <v>418</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>709</v>
+        <v>420</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>711</v>
@@ -4198,10 +4210,10 @@
         <v>713</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>725</v>
@@ -4341,8 +4353,14 @@
       <c r="CY1" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="2" spans="1:103" ht="150" customHeight="1">
+      <c r="CZ1" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:105" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4356,10 +4374,10 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>280</v>
@@ -4380,10 +4398,10 @@
         <v>290</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>328</v>
@@ -4395,19 +4413,19 @@
         <v>332</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>351</v>
@@ -4476,19 +4494,19 @@
         <v>393</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>405</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>415</v>
@@ -4497,10 +4515,10 @@
         <v>417</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>708</v>
+        <v>419</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>710</v>
+        <v>421</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>712</v>
@@ -4509,10 +4527,10 @@
         <v>714</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="BF2" s="2" t="s">
         <v>726</v>
@@ -4652,31 +4670,37 @@
       <c r="CY2" s="2" t="s">
         <v>816</v>
       </c>
+      <c r="CZ2" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>820</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>soiltype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
       <formula1>growthfacility</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
       <formula1>samplehealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
       <formula1>samplecapturestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
       <formula1>growthhabit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB3:BB101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD3:BD101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
       <formula1>drainageclassification</formula1>
     </dataValidation>
   </dataValidations>
@@ -4686,1641 +4710,1641 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BD289"/>
+  <dimension ref="G1:BF289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:56">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="M1" t="s">
-        <v>291</v>
-      </c>
-      <c r="R1" t="s">
-        <v>333</v>
-      </c>
-      <c r="U1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>394</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>418</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="2" spans="5:56">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M2" t="s">
-        <v>292</v>
-      </c>
-      <c r="R2" t="s">
-        <v>334</v>
-      </c>
-      <c r="U2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>395</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>407</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>419</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="3" spans="5:56">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="M3" t="s">
-        <v>293</v>
-      </c>
-      <c r="R3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>396</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>408</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>420</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="4" spans="5:56">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="M4" t="s">
-        <v>294</v>
-      </c>
-      <c r="R4" t="s">
-        <v>336</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>397</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>409</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>421</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="5" spans="5:56">
-      <c r="E5" t="s">
+    <row r="1" spans="7:58">
+      <c r="G1" t="s">
         <v>274</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O1" t="s">
         <v>295</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T1" t="s">
         <v>337</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="W1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>410</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>422</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="7:58">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="O2" t="s">
+        <v>296</v>
+      </c>
+      <c r="T2" t="s">
+        <v>338</v>
+      </c>
+      <c r="W2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>411</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>423</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="7:58">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="O3" t="s">
+        <v>297</v>
+      </c>
+      <c r="T3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>412</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>424</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="4" spans="7:58">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O4" t="s">
+        <v>298</v>
+      </c>
+      <c r="T4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>413</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>425</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="7:58">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU5" t="s">
         <v>116</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>422</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="6" spans="5:56">
-      <c r="M6" t="s">
-        <v>296</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="BB5" t="s">
+        <v>426</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="6" spans="7:58">
+      <c r="O6" t="s">
+        <v>300</v>
+      </c>
+      <c r="T6" t="s">
         <v>116</v>
       </c>
-      <c r="AS6" t="s">
-        <v>398</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>423</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="7" spans="5:56">
-      <c r="M7" t="s">
-        <v>297</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>399</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="5:56">
-      <c r="M8" t="s">
-        <v>298</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="5:56">
-      <c r="M9" t="s">
-        <v>299</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="5:56">
-      <c r="M10" t="s">
-        <v>300</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="AU6" t="s">
+        <v>402</v>
+      </c>
+      <c r="BB6" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="11" spans="5:56">
-      <c r="M11" t="s">
+      <c r="BF6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="7:58">
+      <c r="O7" t="s">
         <v>301</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="AU7" t="s">
+        <v>403</v>
+      </c>
+      <c r="BB7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="5:56">
-      <c r="M12" t="s">
+    <row r="8" spans="7:58">
+      <c r="O8" t="s">
         <v>302</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BB8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="5:56">
-      <c r="M13" t="s">
+    <row r="9" spans="7:58">
+      <c r="O9" t="s">
         <v>303</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BB9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="5:56">
-      <c r="M14" t="s">
+    <row r="10" spans="7:58">
+      <c r="O10" t="s">
         <v>304</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BB10" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="15" spans="5:56">
-      <c r="M15" t="s">
+    <row r="11" spans="7:58">
+      <c r="O11" t="s">
         <v>305</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BB11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="5:56">
-      <c r="M16" t="s">
+    <row r="12" spans="7:58">
+      <c r="O12" t="s">
         <v>306</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BB12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="17" spans="13:52">
-      <c r="M17" t="s">
+    <row r="13" spans="7:58">
+      <c r="O13" t="s">
         <v>307</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BB13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="13:52">
-      <c r="M18" t="s">
+    <row r="14" spans="7:58">
+      <c r="O14" t="s">
         <v>308</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BB14" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="13:52">
-      <c r="M19" t="s">
+    <row r="15" spans="7:58">
+      <c r="O15" t="s">
         <v>309</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BB15" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="13:52">
-      <c r="M20" t="s">
+    <row r="16" spans="7:58">
+      <c r="O16" t="s">
         <v>310</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BB16" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="13:52">
-      <c r="M21" t="s">
+    <row r="17" spans="15:54">
+      <c r="O17" t="s">
         <v>311</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BB17" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="13:52">
-      <c r="M22" t="s">
+    <row r="18" spans="15:54">
+      <c r="O18" t="s">
         <v>312</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BB18" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="13:52">
-      <c r="M23" t="s">
+    <row r="19" spans="15:54">
+      <c r="O19" t="s">
         <v>313</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BB19" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="13:52">
-      <c r="M24" t="s">
+    <row r="20" spans="15:54">
+      <c r="O20" t="s">
         <v>314</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BB20" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="13:52">
-      <c r="M25" t="s">
+    <row r="21" spans="15:54">
+      <c r="O21" t="s">
         <v>315</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BB21" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="13:52">
-      <c r="M26" t="s">
+    <row r="22" spans="15:54">
+      <c r="O22" t="s">
         <v>316</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BB22" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="13:52">
-      <c r="M27" t="s">
+    <row r="23" spans="15:54">
+      <c r="O23" t="s">
         <v>317</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BB23" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="28" spans="13:52">
-      <c r="M28" t="s">
+    <row r="24" spans="15:54">
+      <c r="O24" t="s">
         <v>318</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BB24" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="29" spans="13:52">
-      <c r="M29" t="s">
+    <row r="25" spans="15:54">
+      <c r="O25" t="s">
         <v>319</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BB25" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="13:52">
-      <c r="M30" t="s">
+    <row r="26" spans="15:54">
+      <c r="O26" t="s">
         <v>320</v>
       </c>
-      <c r="AZ30" t="s">
+      <c r="BB26" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="13:52">
-      <c r="M31" t="s">
+    <row r="27" spans="15:54">
+      <c r="O27" t="s">
         <v>321</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BB27" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="32" spans="13:52">
-      <c r="M32" t="s">
+    <row r="28" spans="15:54">
+      <c r="O28" t="s">
         <v>322</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="BB28" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="33" spans="52:52">
-      <c r="AZ33" t="s">
+    <row r="29" spans="15:54">
+      <c r="O29" t="s">
+        <v>323</v>
+      </c>
+      <c r="BB29" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="34" spans="52:52">
-      <c r="AZ34" t="s">
+    <row r="30" spans="15:54">
+      <c r="O30" t="s">
+        <v>324</v>
+      </c>
+      <c r="BB30" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="52:52">
-      <c r="AZ35" t="s">
+    <row r="31" spans="15:54">
+      <c r="O31" t="s">
+        <v>325</v>
+      </c>
+      <c r="BB31" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="36" spans="52:52">
-      <c r="AZ36" t="s">
+    <row r="32" spans="15:54">
+      <c r="O32" t="s">
+        <v>326</v>
+      </c>
+      <c r="BB32" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="52:52">
-      <c r="AZ37" t="s">
+    <row r="33" spans="54:54">
+      <c r="BB33" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="38" spans="52:52">
-      <c r="AZ38" t="s">
+    <row r="34" spans="54:54">
+      <c r="BB34" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="52:52">
-      <c r="AZ39" t="s">
+    <row r="35" spans="54:54">
+      <c r="BB35" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="52:52">
-      <c r="AZ40" t="s">
+    <row r="36" spans="54:54">
+      <c r="BB36" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="41" spans="52:52">
-      <c r="AZ41" t="s">
+    <row r="37" spans="54:54">
+      <c r="BB37" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="42" spans="52:52">
-      <c r="AZ42" t="s">
+    <row r="38" spans="54:54">
+      <c r="BB38" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="52:52">
-      <c r="AZ43" t="s">
+    <row r="39" spans="54:54">
+      <c r="BB39" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="44" spans="52:52">
-      <c r="AZ44" t="s">
+    <row r="40" spans="54:54">
+      <c r="BB40" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="52:52">
-      <c r="AZ45" t="s">
+    <row r="41" spans="54:54">
+      <c r="BB41" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="46" spans="52:52">
-      <c r="AZ46" t="s">
+    <row r="42" spans="54:54">
+      <c r="BB42" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="47" spans="52:52">
-      <c r="AZ47" t="s">
+    <row r="43" spans="54:54">
+      <c r="BB43" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="48" spans="52:52">
-      <c r="AZ48" t="s">
+    <row r="44" spans="54:54">
+      <c r="BB44" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="52:52">
-      <c r="AZ49" t="s">
+    <row r="45" spans="54:54">
+      <c r="BB45" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="52:52">
-      <c r="AZ50" t="s">
+    <row r="46" spans="54:54">
+      <c r="BB46" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="52:52">
-      <c r="AZ51" t="s">
+    <row r="47" spans="54:54">
+      <c r="BB47" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="52" spans="52:52">
-      <c r="AZ52" t="s">
+    <row r="48" spans="54:54">
+      <c r="BB48" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="52:52">
-      <c r="AZ53" t="s">
+    <row r="49" spans="54:54">
+      <c r="BB49" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="52:52">
-      <c r="AZ54" t="s">
+    <row r="50" spans="54:54">
+      <c r="BB50" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="52:52">
-      <c r="AZ55" t="s">
+    <row r="51" spans="54:54">
+      <c r="BB51" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="56" spans="52:52">
-      <c r="AZ56" t="s">
+    <row r="52" spans="54:54">
+      <c r="BB52" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="57" spans="52:52">
-      <c r="AZ57" t="s">
+    <row r="53" spans="54:54">
+      <c r="BB53" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="52:52">
-      <c r="AZ58" t="s">
+    <row r="54" spans="54:54">
+      <c r="BB54" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="59" spans="52:52">
-      <c r="AZ59" t="s">
+    <row r="55" spans="54:54">
+      <c r="BB55" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="52:52">
-      <c r="AZ60" t="s">
+    <row r="56" spans="54:54">
+      <c r="BB56" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="52:52">
-      <c r="AZ61" t="s">
+    <row r="57" spans="54:54">
+      <c r="BB57" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="62" spans="52:52">
-      <c r="AZ62" t="s">
+    <row r="58" spans="54:54">
+      <c r="BB58" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="52:52">
-      <c r="AZ63" t="s">
+    <row r="59" spans="54:54">
+      <c r="BB59" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="64" spans="52:52">
-      <c r="AZ64" t="s">
+    <row r="60" spans="54:54">
+      <c r="BB60" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="65" spans="52:52">
-      <c r="AZ65" t="s">
+    <row r="61" spans="54:54">
+      <c r="BB61" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="66" spans="52:52">
-      <c r="AZ66" t="s">
+    <row r="62" spans="54:54">
+      <c r="BB62" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="52:52">
-      <c r="AZ67" t="s">
+    <row r="63" spans="54:54">
+      <c r="BB63" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="68" spans="52:52">
-      <c r="AZ68" t="s">
+    <row r="64" spans="54:54">
+      <c r="BB64" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="52:52">
-      <c r="AZ69" t="s">
+    <row r="65" spans="54:54">
+      <c r="BB65" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="70" spans="52:52">
-      <c r="AZ70" t="s">
+    <row r="66" spans="54:54">
+      <c r="BB66" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="71" spans="52:52">
-      <c r="AZ71" t="s">
+    <row r="67" spans="54:54">
+      <c r="BB67" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="72" spans="52:52">
-      <c r="AZ72" t="s">
+    <row r="68" spans="54:54">
+      <c r="BB68" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="52:52">
-      <c r="AZ73" t="s">
+    <row r="69" spans="54:54">
+      <c r="BB69" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="52:52">
-      <c r="AZ74" t="s">
+    <row r="70" spans="54:54">
+      <c r="BB70" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="52:52">
-      <c r="AZ75" t="s">
+    <row r="71" spans="54:54">
+      <c r="BB71" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="76" spans="52:52">
-      <c r="AZ76" t="s">
+    <row r="72" spans="54:54">
+      <c r="BB72" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="77" spans="52:52">
-      <c r="AZ77" t="s">
+    <row r="73" spans="54:54">
+      <c r="BB73" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="52:52">
-      <c r="AZ78" t="s">
+    <row r="74" spans="54:54">
+      <c r="BB74" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="79" spans="52:52">
-      <c r="AZ79" t="s">
+    <row r="75" spans="54:54">
+      <c r="BB75" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="80" spans="52:52">
-      <c r="AZ80" t="s">
+    <row r="76" spans="54:54">
+      <c r="BB76" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="81" spans="52:52">
-      <c r="AZ81" t="s">
+    <row r="77" spans="54:54">
+      <c r="BB77" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="82" spans="52:52">
-      <c r="AZ82" t="s">
+    <row r="78" spans="54:54">
+      <c r="BB78" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="83" spans="52:52">
-      <c r="AZ83" t="s">
+    <row r="79" spans="54:54">
+      <c r="BB79" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="52:52">
-      <c r="AZ84" t="s">
+    <row r="80" spans="54:54">
+      <c r="BB80" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="52:52">
-      <c r="AZ85" t="s">
+    <row r="81" spans="54:54">
+      <c r="BB81" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="86" spans="52:52">
-      <c r="AZ86" t="s">
+    <row r="82" spans="54:54">
+      <c r="BB82" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="87" spans="52:52">
-      <c r="AZ87" t="s">
+    <row r="83" spans="54:54">
+      <c r="BB83" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="88" spans="52:52">
-      <c r="AZ88" t="s">
+    <row r="84" spans="54:54">
+      <c r="BB84" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="89" spans="52:52">
-      <c r="AZ89" t="s">
+    <row r="85" spans="54:54">
+      <c r="BB85" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="90" spans="52:52">
-      <c r="AZ90" t="s">
+    <row r="86" spans="54:54">
+      <c r="BB86" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="91" spans="52:52">
-      <c r="AZ91" t="s">
+    <row r="87" spans="54:54">
+      <c r="BB87" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="92" spans="52:52">
-      <c r="AZ92" t="s">
+    <row r="88" spans="54:54">
+      <c r="BB88" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="93" spans="52:52">
-      <c r="AZ93" t="s">
+    <row r="89" spans="54:54">
+      <c r="BB89" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="94" spans="52:52">
-      <c r="AZ94" t="s">
+    <row r="90" spans="54:54">
+      <c r="BB90" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="95" spans="52:52">
-      <c r="AZ95" t="s">
+    <row r="91" spans="54:54">
+      <c r="BB91" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="96" spans="52:52">
-      <c r="AZ96" t="s">
+    <row r="92" spans="54:54">
+      <c r="BB92" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="97" spans="52:52">
-      <c r="AZ97" t="s">
+    <row r="93" spans="54:54">
+      <c r="BB93" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="98" spans="52:52">
-      <c r="AZ98" t="s">
+    <row r="94" spans="54:54">
+      <c r="BB94" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="99" spans="52:52">
-      <c r="AZ99" t="s">
+    <row r="95" spans="54:54">
+      <c r="BB95" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="100" spans="52:52">
-      <c r="AZ100" t="s">
+    <row r="96" spans="54:54">
+      <c r="BB96" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="101" spans="52:52">
-      <c r="AZ101" t="s">
+    <row r="97" spans="54:54">
+      <c r="BB97" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="102" spans="52:52">
-      <c r="AZ102" t="s">
+    <row r="98" spans="54:54">
+      <c r="BB98" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="52:52">
-      <c r="AZ103" t="s">
+    <row r="99" spans="54:54">
+      <c r="BB99" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="104" spans="52:52">
-      <c r="AZ104" t="s">
+    <row r="100" spans="54:54">
+      <c r="BB100" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="105" spans="52:52">
-      <c r="AZ105" t="s">
+    <row r="101" spans="54:54">
+      <c r="BB101" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="52:52">
-      <c r="AZ106" t="s">
+    <row r="102" spans="54:54">
+      <c r="BB102" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="52:52">
-      <c r="AZ107" t="s">
+    <row r="103" spans="54:54">
+      <c r="BB103" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="108" spans="52:52">
-      <c r="AZ108" t="s">
+    <row r="104" spans="54:54">
+      <c r="BB104" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="109" spans="52:52">
-      <c r="AZ109" t="s">
+    <row r="105" spans="54:54">
+      <c r="BB105" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="110" spans="52:52">
-      <c r="AZ110" t="s">
+    <row r="106" spans="54:54">
+      <c r="BB106" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="111" spans="52:52">
-      <c r="AZ111" t="s">
+    <row r="107" spans="54:54">
+      <c r="BB107" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="112" spans="52:52">
-      <c r="AZ112" t="s">
+    <row r="108" spans="54:54">
+      <c r="BB108" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="113" spans="52:52">
-      <c r="AZ113" t="s">
+    <row r="109" spans="54:54">
+      <c r="BB109" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="114" spans="52:52">
-      <c r="AZ114" t="s">
+    <row r="110" spans="54:54">
+      <c r="BB110" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="52:52">
-      <c r="AZ115" t="s">
+    <row r="111" spans="54:54">
+      <c r="BB111" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="116" spans="52:52">
-      <c r="AZ116" t="s">
+    <row r="112" spans="54:54">
+      <c r="BB112" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="117" spans="52:52">
-      <c r="AZ117" t="s">
+    <row r="113" spans="54:54">
+      <c r="BB113" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="118" spans="52:52">
-      <c r="AZ118" t="s">
+    <row r="114" spans="54:54">
+      <c r="BB114" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="119" spans="52:52">
-      <c r="AZ119" t="s">
+    <row r="115" spans="54:54">
+      <c r="BB115" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="120" spans="52:52">
-      <c r="AZ120" t="s">
+    <row r="116" spans="54:54">
+      <c r="BB116" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="121" spans="52:52">
-      <c r="AZ121" t="s">
+    <row r="117" spans="54:54">
+      <c r="BB117" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="122" spans="52:52">
-      <c r="AZ122" t="s">
+    <row r="118" spans="54:54">
+      <c r="BB118" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="123" spans="52:52">
-      <c r="AZ123" t="s">
+    <row r="119" spans="54:54">
+      <c r="BB119" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="124" spans="52:52">
-      <c r="AZ124" t="s">
+    <row r="120" spans="54:54">
+      <c r="BB120" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="125" spans="52:52">
-      <c r="AZ125" t="s">
+    <row r="121" spans="54:54">
+      <c r="BB121" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="126" spans="52:52">
-      <c r="AZ126" t="s">
+    <row r="122" spans="54:54">
+      <c r="BB122" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="127" spans="52:52">
-      <c r="AZ127" t="s">
+    <row r="123" spans="54:54">
+      <c r="BB123" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="128" spans="52:52">
-      <c r="AZ128" t="s">
+    <row r="124" spans="54:54">
+      <c r="BB124" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="129" spans="52:52">
-      <c r="AZ129" t="s">
+    <row r="125" spans="54:54">
+      <c r="BB125" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="130" spans="52:52">
-      <c r="AZ130" t="s">
+    <row r="126" spans="54:54">
+      <c r="BB126" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="131" spans="52:52">
-      <c r="AZ131" t="s">
+    <row r="127" spans="54:54">
+      <c r="BB127" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="132" spans="52:52">
-      <c r="AZ132" t="s">
+    <row r="128" spans="54:54">
+      <c r="BB128" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="133" spans="52:52">
-      <c r="AZ133" t="s">
+    <row r="129" spans="54:54">
+      <c r="BB129" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="134" spans="52:52">
-      <c r="AZ134" t="s">
+    <row r="130" spans="54:54">
+      <c r="BB130" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="135" spans="52:52">
-      <c r="AZ135" t="s">
+    <row r="131" spans="54:54">
+      <c r="BB131" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="136" spans="52:52">
-      <c r="AZ136" t="s">
+    <row r="132" spans="54:54">
+      <c r="BB132" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="137" spans="52:52">
-      <c r="AZ137" t="s">
+    <row r="133" spans="54:54">
+      <c r="BB133" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="138" spans="52:52">
-      <c r="AZ138" t="s">
+    <row r="134" spans="54:54">
+      <c r="BB134" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="139" spans="52:52">
-      <c r="AZ139" t="s">
+    <row r="135" spans="54:54">
+      <c r="BB135" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="140" spans="52:52">
-      <c r="AZ140" t="s">
+    <row r="136" spans="54:54">
+      <c r="BB136" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="141" spans="52:52">
-      <c r="AZ141" t="s">
+    <row r="137" spans="54:54">
+      <c r="BB137" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="142" spans="52:52">
-      <c r="AZ142" t="s">
+    <row r="138" spans="54:54">
+      <c r="BB138" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="143" spans="52:52">
-      <c r="AZ143" t="s">
+    <row r="139" spans="54:54">
+      <c r="BB139" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="144" spans="52:52">
-      <c r="AZ144" t="s">
+    <row r="140" spans="54:54">
+      <c r="BB140" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="145" spans="52:52">
-      <c r="AZ145" t="s">
+    <row r="141" spans="54:54">
+      <c r="BB141" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="146" spans="52:52">
-      <c r="AZ146" t="s">
+    <row r="142" spans="54:54">
+      <c r="BB142" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="147" spans="52:52">
-      <c r="AZ147" t="s">
+    <row r="143" spans="54:54">
+      <c r="BB143" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="52:52">
-      <c r="AZ148" t="s">
+    <row r="144" spans="54:54">
+      <c r="BB144" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="149" spans="52:52">
-      <c r="AZ149" t="s">
+    <row r="145" spans="54:54">
+      <c r="BB145" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="150" spans="52:52">
-      <c r="AZ150" t="s">
+    <row r="146" spans="54:54">
+      <c r="BB146" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="151" spans="52:52">
-      <c r="AZ151" t="s">
+    <row r="147" spans="54:54">
+      <c r="BB147" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="152" spans="52:52">
-      <c r="AZ152" t="s">
+    <row r="148" spans="54:54">
+      <c r="BB148" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="153" spans="52:52">
-      <c r="AZ153" t="s">
+    <row r="149" spans="54:54">
+      <c r="BB149" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="154" spans="52:52">
-      <c r="AZ154" t="s">
+    <row r="150" spans="54:54">
+      <c r="BB150" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="155" spans="52:52">
-      <c r="AZ155" t="s">
+    <row r="151" spans="54:54">
+      <c r="BB151" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="156" spans="52:52">
-      <c r="AZ156" t="s">
+    <row r="152" spans="54:54">
+      <c r="BB152" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="157" spans="52:52">
-      <c r="AZ157" t="s">
+    <row r="153" spans="54:54">
+      <c r="BB153" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="158" spans="52:52">
-      <c r="AZ158" t="s">
+    <row r="154" spans="54:54">
+      <c r="BB154" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="159" spans="52:52">
-      <c r="AZ159" t="s">
+    <row r="155" spans="54:54">
+      <c r="BB155" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="160" spans="52:52">
-      <c r="AZ160" t="s">
+    <row r="156" spans="54:54">
+      <c r="BB156" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="161" spans="52:52">
-      <c r="AZ161" t="s">
+    <row r="157" spans="54:54">
+      <c r="BB157" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="162" spans="52:52">
-      <c r="AZ162" t="s">
+    <row r="158" spans="54:54">
+      <c r="BB158" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="163" spans="52:52">
-      <c r="AZ163" t="s">
+    <row r="159" spans="54:54">
+      <c r="BB159" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="164" spans="52:52">
-      <c r="AZ164" t="s">
+    <row r="160" spans="54:54">
+      <c r="BB160" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="165" spans="52:52">
-      <c r="AZ165" t="s">
+    <row r="161" spans="54:54">
+      <c r="BB161" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="166" spans="52:52">
-      <c r="AZ166" t="s">
+    <row r="162" spans="54:54">
+      <c r="BB162" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="167" spans="52:52">
-      <c r="AZ167" t="s">
+    <row r="163" spans="54:54">
+      <c r="BB163" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="168" spans="52:52">
-      <c r="AZ168" t="s">
+    <row r="164" spans="54:54">
+      <c r="BB164" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="169" spans="52:52">
-      <c r="AZ169" t="s">
+    <row r="165" spans="54:54">
+      <c r="BB165" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="170" spans="52:52">
-      <c r="AZ170" t="s">
+    <row r="166" spans="54:54">
+      <c r="BB166" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="171" spans="52:52">
-      <c r="AZ171" t="s">
+    <row r="167" spans="54:54">
+      <c r="BB167" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="172" spans="52:52">
-      <c r="AZ172" t="s">
+    <row r="168" spans="54:54">
+      <c r="BB168" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="173" spans="52:52">
-      <c r="AZ173" t="s">
+    <row r="169" spans="54:54">
+      <c r="BB169" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="174" spans="52:52">
-      <c r="AZ174" t="s">
+    <row r="170" spans="54:54">
+      <c r="BB170" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="175" spans="52:52">
-      <c r="AZ175" t="s">
+    <row r="171" spans="54:54">
+      <c r="BB171" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="176" spans="52:52">
-      <c r="AZ176" t="s">
+    <row r="172" spans="54:54">
+      <c r="BB172" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="177" spans="52:52">
-      <c r="AZ177" t="s">
+    <row r="173" spans="54:54">
+      <c r="BB173" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="178" spans="52:52">
-      <c r="AZ178" t="s">
+    <row r="174" spans="54:54">
+      <c r="BB174" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="179" spans="52:52">
-      <c r="AZ179" t="s">
+    <row r="175" spans="54:54">
+      <c r="BB175" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="180" spans="52:52">
-      <c r="AZ180" t="s">
+    <row r="176" spans="54:54">
+      <c r="BB176" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="181" spans="52:52">
-      <c r="AZ181" t="s">
+    <row r="177" spans="54:54">
+      <c r="BB177" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="182" spans="52:52">
-      <c r="AZ182" t="s">
+    <row r="178" spans="54:54">
+      <c r="BB178" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="183" spans="52:52">
-      <c r="AZ183" t="s">
+    <row r="179" spans="54:54">
+      <c r="BB179" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="184" spans="52:52">
-      <c r="AZ184" t="s">
+    <row r="180" spans="54:54">
+      <c r="BB180" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="185" spans="52:52">
-      <c r="AZ185" t="s">
+    <row r="181" spans="54:54">
+      <c r="BB181" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="186" spans="52:52">
-      <c r="AZ186" t="s">
+    <row r="182" spans="54:54">
+      <c r="BB182" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="187" spans="52:52">
-      <c r="AZ187" t="s">
+    <row r="183" spans="54:54">
+      <c r="BB183" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="188" spans="52:52">
-      <c r="AZ188" t="s">
+    <row r="184" spans="54:54">
+      <c r="BB184" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="189" spans="52:52">
-      <c r="AZ189" t="s">
+    <row r="185" spans="54:54">
+      <c r="BB185" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="190" spans="52:52">
-      <c r="AZ190" t="s">
+    <row r="186" spans="54:54">
+      <c r="BB186" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="191" spans="52:52">
-      <c r="AZ191" t="s">
+    <row r="187" spans="54:54">
+      <c r="BB187" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="192" spans="52:52">
-      <c r="AZ192" t="s">
+    <row r="188" spans="54:54">
+      <c r="BB188" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="193" spans="52:52">
-      <c r="AZ193" t="s">
+    <row r="189" spans="54:54">
+      <c r="BB189" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="194" spans="52:52">
-      <c r="AZ194" t="s">
+    <row r="190" spans="54:54">
+      <c r="BB190" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="195" spans="52:52">
-      <c r="AZ195" t="s">
+    <row r="191" spans="54:54">
+      <c r="BB191" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="196" spans="52:52">
-      <c r="AZ196" t="s">
+    <row r="192" spans="54:54">
+      <c r="BB192" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="197" spans="52:52">
-      <c r="AZ197" t="s">
+    <row r="193" spans="54:54">
+      <c r="BB193" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="198" spans="52:52">
-      <c r="AZ198" t="s">
+    <row r="194" spans="54:54">
+      <c r="BB194" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="199" spans="52:52">
-      <c r="AZ199" t="s">
+    <row r="195" spans="54:54">
+      <c r="BB195" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="200" spans="52:52">
-      <c r="AZ200" t="s">
+    <row r="196" spans="54:54">
+      <c r="BB196" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="201" spans="52:52">
-      <c r="AZ201" t="s">
+    <row r="197" spans="54:54">
+      <c r="BB197" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="52:52">
-      <c r="AZ202" t="s">
+    <row r="198" spans="54:54">
+      <c r="BB198" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="203" spans="52:52">
-      <c r="AZ203" t="s">
+    <row r="199" spans="54:54">
+      <c r="BB199" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="204" spans="52:52">
-      <c r="AZ204" t="s">
+    <row r="200" spans="54:54">
+      <c r="BB200" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="205" spans="52:52">
-      <c r="AZ205" t="s">
+    <row r="201" spans="54:54">
+      <c r="BB201" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="206" spans="52:52">
-      <c r="AZ206" t="s">
+    <row r="202" spans="54:54">
+      <c r="BB202" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="207" spans="52:52">
-      <c r="AZ207" t="s">
+    <row r="203" spans="54:54">
+      <c r="BB203" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="208" spans="52:52">
-      <c r="AZ208" t="s">
+    <row r="204" spans="54:54">
+      <c r="BB204" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="209" spans="52:52">
-      <c r="AZ209" t="s">
+    <row r="205" spans="54:54">
+      <c r="BB205" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="210" spans="52:52">
-      <c r="AZ210" t="s">
+    <row r="206" spans="54:54">
+      <c r="BB206" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="211" spans="52:52">
-      <c r="AZ211" t="s">
+    <row r="207" spans="54:54">
+      <c r="BB207" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="212" spans="52:52">
-      <c r="AZ212" t="s">
+    <row r="208" spans="54:54">
+      <c r="BB208" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="213" spans="52:52">
-      <c r="AZ213" t="s">
+    <row r="209" spans="54:54">
+      <c r="BB209" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="214" spans="52:52">
-      <c r="AZ214" t="s">
+    <row r="210" spans="54:54">
+      <c r="BB210" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="215" spans="52:52">
-      <c r="AZ215" t="s">
+    <row r="211" spans="54:54">
+      <c r="BB211" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="216" spans="52:52">
-      <c r="AZ216" t="s">
+    <row r="212" spans="54:54">
+      <c r="BB212" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="217" spans="52:52">
-      <c r="AZ217" t="s">
+    <row r="213" spans="54:54">
+      <c r="BB213" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="218" spans="52:52">
-      <c r="AZ218" t="s">
+    <row r="214" spans="54:54">
+      <c r="BB214" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="219" spans="52:52">
-      <c r="AZ219" t="s">
+    <row r="215" spans="54:54">
+      <c r="BB215" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="220" spans="52:52">
-      <c r="AZ220" t="s">
+    <row r="216" spans="54:54">
+      <c r="BB216" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="221" spans="52:52">
-      <c r="AZ221" t="s">
+    <row r="217" spans="54:54">
+      <c r="BB217" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="222" spans="52:52">
-      <c r="AZ222" t="s">
+    <row r="218" spans="54:54">
+      <c r="BB218" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="223" spans="52:52">
-      <c r="AZ223" t="s">
+    <row r="219" spans="54:54">
+      <c r="BB219" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="224" spans="52:52">
-      <c r="AZ224" t="s">
+    <row r="220" spans="54:54">
+      <c r="BB220" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="225" spans="52:52">
-      <c r="AZ225" t="s">
+    <row r="221" spans="54:54">
+      <c r="BB221" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="226" spans="52:52">
-      <c r="AZ226" t="s">
+    <row r="222" spans="54:54">
+      <c r="BB222" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="227" spans="52:52">
-      <c r="AZ227" t="s">
+    <row r="223" spans="54:54">
+      <c r="BB223" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="228" spans="52:52">
-      <c r="AZ228" t="s">
+    <row r="224" spans="54:54">
+      <c r="BB224" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="229" spans="52:52">
-      <c r="AZ229" t="s">
+    <row r="225" spans="54:54">
+      <c r="BB225" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="230" spans="52:52">
-      <c r="AZ230" t="s">
+    <row r="226" spans="54:54">
+      <c r="BB226" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="231" spans="52:52">
-      <c r="AZ231" t="s">
+    <row r="227" spans="54:54">
+      <c r="BB227" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="232" spans="52:52">
-      <c r="AZ232" t="s">
+    <row r="228" spans="54:54">
+      <c r="BB228" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="233" spans="52:52">
-      <c r="AZ233" t="s">
+    <row r="229" spans="54:54">
+      <c r="BB229" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="234" spans="52:52">
-      <c r="AZ234" t="s">
+    <row r="230" spans="54:54">
+      <c r="BB230" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="235" spans="52:52">
-      <c r="AZ235" t="s">
+    <row r="231" spans="54:54">
+      <c r="BB231" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="236" spans="52:52">
-      <c r="AZ236" t="s">
+    <row r="232" spans="54:54">
+      <c r="BB232" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="237" spans="52:52">
-      <c r="AZ237" t="s">
+    <row r="233" spans="54:54">
+      <c r="BB233" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="238" spans="52:52">
-      <c r="AZ238" t="s">
+    <row r="234" spans="54:54">
+      <c r="BB234" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="239" spans="52:52">
-      <c r="AZ239" t="s">
+    <row r="235" spans="54:54">
+      <c r="BB235" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="240" spans="52:52">
-      <c r="AZ240" t="s">
+    <row r="236" spans="54:54">
+      <c r="BB236" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="241" spans="52:52">
-      <c r="AZ241" t="s">
+    <row r="237" spans="54:54">
+      <c r="BB237" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="242" spans="52:52">
-      <c r="AZ242" t="s">
+    <row r="238" spans="54:54">
+      <c r="BB238" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="243" spans="52:52">
-      <c r="AZ243" t="s">
+    <row r="239" spans="54:54">
+      <c r="BB239" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="244" spans="52:52">
-      <c r="AZ244" t="s">
+    <row r="240" spans="54:54">
+      <c r="BB240" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="245" spans="52:52">
-      <c r="AZ245" t="s">
+    <row r="241" spans="54:54">
+      <c r="BB241" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="246" spans="52:52">
-      <c r="AZ246" t="s">
+    <row r="242" spans="54:54">
+      <c r="BB242" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="247" spans="52:52">
-      <c r="AZ247" t="s">
+    <row r="243" spans="54:54">
+      <c r="BB243" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="248" spans="52:52">
-      <c r="AZ248" t="s">
+    <row r="244" spans="54:54">
+      <c r="BB244" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="249" spans="52:52">
-      <c r="AZ249" t="s">
+    <row r="245" spans="54:54">
+      <c r="BB245" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="250" spans="52:52">
-      <c r="AZ250" t="s">
+    <row r="246" spans="54:54">
+      <c r="BB246" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="251" spans="52:52">
-      <c r="AZ251" t="s">
+    <row r="247" spans="54:54">
+      <c r="BB247" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="252" spans="52:52">
-      <c r="AZ252" t="s">
+    <row r="248" spans="54:54">
+      <c r="BB248" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="253" spans="52:52">
-      <c r="AZ253" t="s">
+    <row r="249" spans="54:54">
+      <c r="BB249" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="254" spans="52:52">
-      <c r="AZ254" t="s">
+    <row r="250" spans="54:54">
+      <c r="BB250" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="255" spans="52:52">
-      <c r="AZ255" t="s">
+    <row r="251" spans="54:54">
+      <c r="BB251" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="256" spans="52:52">
-      <c r="AZ256" t="s">
+    <row r="252" spans="54:54">
+      <c r="BB252" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="257" spans="52:52">
-      <c r="AZ257" t="s">
+    <row r="253" spans="54:54">
+      <c r="BB253" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="258" spans="52:52">
-      <c r="AZ258" t="s">
+    <row r="254" spans="54:54">
+      <c r="BB254" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="259" spans="52:52">
-      <c r="AZ259" t="s">
+    <row r="255" spans="54:54">
+      <c r="BB255" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="260" spans="52:52">
-      <c r="AZ260" t="s">
+    <row r="256" spans="54:54">
+      <c r="BB256" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="261" spans="52:52">
-      <c r="AZ261" t="s">
+    <row r="257" spans="54:54">
+      <c r="BB257" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="262" spans="52:52">
-      <c r="AZ262" t="s">
+    <row r="258" spans="54:54">
+      <c r="BB258" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="263" spans="52:52">
-      <c r="AZ263" t="s">
+    <row r="259" spans="54:54">
+      <c r="BB259" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="264" spans="52:52">
-      <c r="AZ264" t="s">
+    <row r="260" spans="54:54">
+      <c r="BB260" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="265" spans="52:52">
-      <c r="AZ265" t="s">
+    <row r="261" spans="54:54">
+      <c r="BB261" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="266" spans="52:52">
-      <c r="AZ266" t="s">
+    <row r="262" spans="54:54">
+      <c r="BB262" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="267" spans="52:52">
-      <c r="AZ267" t="s">
+    <row r="263" spans="54:54">
+      <c r="BB263" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="268" spans="52:52">
-      <c r="AZ268" t="s">
+    <row r="264" spans="54:54">
+      <c r="BB264" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="269" spans="52:52">
-      <c r="AZ269" t="s">
+    <row r="265" spans="54:54">
+      <c r="BB265" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="270" spans="52:52">
-      <c r="AZ270" t="s">
+    <row r="266" spans="54:54">
+      <c r="BB266" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="271" spans="52:52">
-      <c r="AZ271" t="s">
+    <row r="267" spans="54:54">
+      <c r="BB267" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="272" spans="52:52">
-      <c r="AZ272" t="s">
+    <row r="268" spans="54:54">
+      <c r="BB268" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="273" spans="52:52">
-      <c r="AZ273" t="s">
+    <row r="269" spans="54:54">
+      <c r="BB269" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="274" spans="52:52">
-      <c r="AZ274" t="s">
+    <row r="270" spans="54:54">
+      <c r="BB270" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="52:52">
-      <c r="AZ275" t="s">
+    <row r="271" spans="54:54">
+      <c r="BB271" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="276" spans="52:52">
-      <c r="AZ276" t="s">
+    <row r="272" spans="54:54">
+      <c r="BB272" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="277" spans="52:52">
-      <c r="AZ277" t="s">
+    <row r="273" spans="54:54">
+      <c r="BB273" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="278" spans="52:52">
-      <c r="AZ278" t="s">
+    <row r="274" spans="54:54">
+      <c r="BB274" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="279" spans="52:52">
-      <c r="AZ279" t="s">
+    <row r="275" spans="54:54">
+      <c r="BB275" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="280" spans="52:52">
-      <c r="AZ280" t="s">
+    <row r="276" spans="54:54">
+      <c r="BB276" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="281" spans="52:52">
-      <c r="AZ281" t="s">
+    <row r="277" spans="54:54">
+      <c r="BB277" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="282" spans="52:52">
-      <c r="AZ282" t="s">
+    <row r="278" spans="54:54">
+      <c r="BB278" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="283" spans="52:52">
-      <c r="AZ283" t="s">
+    <row r="279" spans="54:54">
+      <c r="BB279" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="284" spans="52:52">
-      <c r="AZ284" t="s">
+    <row r="280" spans="54:54">
+      <c r="BB280" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="285" spans="52:52">
-      <c r="AZ285" t="s">
+    <row r="281" spans="54:54">
+      <c r="BB281" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="286" spans="52:52">
-      <c r="AZ286" t="s">
+    <row r="282" spans="54:54">
+      <c r="BB282" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="287" spans="52:52">
-      <c r="AZ287" t="s">
+    <row r="283" spans="54:54">
+      <c r="BB283" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="288" spans="52:52">
-      <c r="AZ288" t="s">
+    <row r="284" spans="54:54">
+      <c r="BB284" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="289" spans="52:52">
-      <c r="AZ289" t="s">
+    <row r="285" spans="54:54">
+      <c r="BB285" t="s">
         <v>706</v>
+      </c>
+    </row>
+    <row r="286" spans="54:54">
+      <c r="BB286" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="287" spans="54:54">
+      <c r="BB287" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="288" spans="54:54">
+      <c r="BB288" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="289" spans="54:54">
+      <c r="BB289" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BF$1:$BF$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BB$1:$BB$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BB$1:$BB$294</definedName>
     <definedName name="growthfacility">'cv_sample'!$T$1:$T$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AX$1:$AX$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="826">
   <si>
     <t>alias</t>
   </si>
@@ -1225,7 +1225,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>sampling time point</t>
@@ -1519,9 +1519,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1540,6 +1537,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1741,6 +1741,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1750,9 +1753,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1792,7 +1792,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1861,6 +1861,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1936,6 +1939,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1957,6 +1963,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2002,6 +2011,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2014,6 +2026,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2023,9 +2038,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2050,6 +2062,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2110,12 +2125,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2350,13 +2365,13 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>air temperature regimen</t>
@@ -4204,160 +4219,160 @@
         <v>420</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:105" ht="150" customHeight="1">
@@ -4521,160 +4536,160 @@
         <v>421</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -4710,7 +4725,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BF289"/>
+  <dimension ref="G1:BF294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4739,7 +4754,7 @@
         <v>422</v>
       </c>
       <c r="BF1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="7:58">
@@ -4765,7 +4780,7 @@
         <v>423</v>
       </c>
       <c r="BF2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="7:58">
@@ -4788,7 +4803,7 @@
         <v>424</v>
       </c>
       <c r="BF3" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="7:58">
@@ -4811,7 +4826,7 @@
         <v>425</v>
       </c>
       <c r="BF4" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="7:58">
@@ -4831,7 +4846,7 @@
         <v>426</v>
       </c>
       <c r="BF5" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="7:58">
@@ -4848,7 +4863,7 @@
         <v>427</v>
       </c>
       <c r="BF6" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="7:58">
@@ -6345,6 +6360,31 @@
     <row r="289" spans="54:54">
       <c r="BB289" t="s">
         <v>710</v>
+      </c>
+    </row>
+    <row r="290" spans="54:54">
+      <c r="BB290" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="291" spans="54:54">
+      <c r="BB291" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="292" spans="54:54">
+      <c r="BB292" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="293" spans="54:54">
+      <c r="BB293" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="294" spans="54:54">
+      <c r="BB294" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000037/metadata_template_ERC000037.xlsx
+++ b/templates/ERC000037/metadata_template_ERC000037.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="drainageclassification">'cv_sample'!$BF$1:$BF$6</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BB$1:$BB$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BB$1:$BB$294</definedName>
     <definedName name="growthfacility">'cv_sample'!$T$1:$T$6</definedName>
     <definedName name="growthhabit">'cv_sample'!$AX$1:$AX$4</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="826">
   <si>
     <t>alias</t>
   </si>
@@ -1225,7 +1225,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>sampling time point</t>
@@ -1519,9 +1519,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1540,6 +1537,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1741,6 +1741,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1750,9 +1753,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1792,7 +1792,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1861,6 +1861,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1936,6 +1939,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1957,6 +1963,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2002,6 +2011,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2014,6 +2026,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2023,9 +2038,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2050,6 +2062,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2110,12 +2125,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2350,13 +2365,13 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>air temperature regimen</t>
@@ -4204,160 +4219,160 @@
         <v>420</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:105" ht="150" customHeight="1">
@@ -4521,160 +4536,160 @@
         <v>421</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -4710,7 +4725,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BF289"/>
+  <dimension ref="G1:BF294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4739,7 +4754,7 @@
         <v>422</v>
       </c>
       <c r="BF1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="7:58">
@@ -4765,7 +4780,7 @@
         <v>423</v>
       </c>
       <c r="BF2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="7:58">
@@ -4788,7 +4803,7 @@
         <v>424</v>
       </c>
       <c r="BF3" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="7:58">
@@ -4811,7 +4826,7 @@
         <v>425</v>
       </c>
       <c r="BF4" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="7:58">
@@ -4831,7 +4846,7 @@
         <v>426</v>
       </c>
       <c r="BF5" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="7:58">
@@ -4848,7 +4863,7 @@
         <v>427</v>
       </c>
       <c r="BF6" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="7:58">
@@ -6345,6 +6360,31 @@
     <row r="289" spans="54:54">
       <c r="BB289" t="s">
         <v>710</v>
+      </c>
+    </row>
+    <row r="290" spans="54:54">
+      <c r="BB290" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="291" spans="54:54">
+      <c r="BB291" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="292" spans="54:54">
+      <c r="BB292" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="293" spans="54:54">
+      <c r="BB293" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="294" spans="54:54">
+      <c r="BB294" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
